--- a/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001098927209492289</v>
+        <v>-0.0001098927209492289</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.03577878837634658</v>
+        <v>-0.03577878837634658</v>
       </c>
       <c r="C4">
-        <v>0.0003193005061457723</v>
+        <v>-0.0003193005061457723</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22912.87329958029</v>
+        <v>-22912.87329958029</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12748.6518389693</v>
+        <v>-12748.6518389693</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>505694.9659530112</v>
+        <v>-505694.9659530112</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9182588.719506035</v>
+        <v>-9182588.719506035</v>
       </c>
       <c r="C4">
-        <v>1469329.880900529</v>
+        <v>-1469329.880900529</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>290258297.5629358</v>
+        <v>-290258297.5629358</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>117288023.1056296</v>
+        <v>-117288023.1056296</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>508328.0924459061</v>
+        <v>-508328.0924459061</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9059698.116002286</v>
+        <v>-9059698.116002286</v>
       </c>
       <c r="C4">
-        <v>1476980.602574039</v>
+        <v>-1476980.602574039</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>286693285.8718672</v>
+        <v>-286693285.8718672</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>115769461.4590415</v>
+        <v>-115769461.4590415</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.001423655537075314</v>
+        <v>-0.001423655537075314</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.3864070425834964</v>
+        <v>-0.3864070425834964</v>
       </c>
       <c r="C4">
-        <v>0.004136524508983584</v>
+        <v>-0.004136524508983584</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>48234.30674689904</v>
+        <v>-48234.30674689904</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>26836.13604016033</v>
+        <v>-26836.13604016033</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01404147466692195</v>
+        <v>-0.01404147466692195</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.248431973341837</v>
+        <v>-3.248431973341837</v>
       </c>
       <c r="C4">
-        <v>0.04079842531383493</v>
+        <v>-0.04079842531383493</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>96322.21436404312</v>
+        <v>-96322.21436404312</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>53580.58168093058</v>
+        <v>-53580.58168093058</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1106614283581194</v>
+        <v>-0.1106614283581194</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>22.29558200911343</v>
+        <v>-22.29558200911343</v>
       </c>
       <c r="C4">
-        <v>0.3215340359247843</v>
+        <v>-0.3215340359247843</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>185322.0771402828</v>
+        <v>-185322.0771402828</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>103021.5254322925</v>
+        <v>-103021.5254322925</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7234515490260532</v>
+        <v>-0.7234515490260532</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>129.4153141646262</v>
+        <v>-129.4153141646262</v>
       </c>
       <c r="C4">
-        <v>2.102035910846948</v>
+        <v>-2.102035910846948</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>347057.4497445057</v>
+        <v>-347057.4497445057</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>192567.0954067092</v>
+        <v>-192567.0954067092</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.040018768018873</v>
+        <v>-4.040018768018873</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>652.5312715924496</v>
+        <v>-652.5312715924496</v>
       </c>
       <c r="C4">
-        <v>11.73853942576256</v>
+        <v>-11.73853942576256</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>634668.3241552198</v>
+        <v>-634668.3241552198</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>350419.5283467253</v>
+        <v>-350419.5283467253</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>19.72432266703868</v>
+        <v>-19.72432266703868</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2917.894780863563</v>
+        <v>-2917.894780863563</v>
       </c>
       <c r="C4">
-        <v>57.31031279021372</v>
+        <v>-57.31031279021372</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1131346.68373563</v>
+        <v>-1131346.68373563</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>617335.3977269576</v>
+        <v>-617335.3977269576</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>85.76326271539186</v>
+        <v>-85.76326271539186</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11759.18321557489</v>
+        <v>-11759.18321557489</v>
       </c>
       <c r="C4">
-        <v>249.1907831310243</v>
+        <v>-249.1907831310243</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1969408.793835186</v>
+        <v>-1969408.793835186</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1046737.640590358</v>
+        <v>-1046737.640590358</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>336.9703820102285</v>
+        <v>-336.9703820102285</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>43216.64957599159</v>
+        <v>-43216.64957599159</v>
       </c>
       <c r="C4">
-        <v>979.0895393491049</v>
+        <v>-979.0895393491049</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3386813.48497012</v>
+        <v>-3386813.48497012</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1703882.655556174</v>
+        <v>-1703882.655556174</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1208.84337372491</v>
+        <v>-1208.84337372491</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>145738.9119443938</v>
+        <v>-145738.9119443938</v>
       </c>
       <c r="C4">
-        <v>3512.373683600517</v>
+        <v>-3512.373683600517</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5884353.899284202</v>
+        <v>-5884353.899284202</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2664225.571147704</v>
+        <v>-2664225.571147704</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3975.40385556021</v>
+        <v>-3975.40385556021</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>448987.384139424</v>
+        <v>-448987.384139424</v>
       </c>
       <c r="C4">
-        <v>11550.79656095399</v>
+        <v>-11550.79656095399</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10590896.13778013</v>
+        <v>-10590896.13778013</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4010624.213820767</v>
+        <v>-4010624.213820767</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11880.44681738437</v>
+        <v>-11880.44681738437</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1229555.514757405</v>
+        <v>-1229555.514757405</v>
       </c>
       <c r="C4">
-        <v>34519.41720308616</v>
+        <v>-34519.41720308616</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19764172.53546776</v>
+        <v>-19764172.53546776</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5829080.04607178</v>
+        <v>-5829080.04607178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>31128.14700231029</v>
+        <v>-31128.14700231029</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2784293.602599983</v>
+        <v>-2784293.602599983</v>
       </c>
       <c r="C4">
-        <v>90444.87212041704</v>
+        <v>-90444.87212041704</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>35876949.13971998</v>
+        <v>-35876949.13971998</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8202847.918634115</v>
+        <v>-8202847.918634115</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>65585.65671037442</v>
+        <v>-65585.65671037442</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4618883.221809466</v>
+        <v>-4618883.221809466</v>
       </c>
       <c r="C4">
-        <v>190563.4258815061</v>
+        <v>-190563.4258815061</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>55535239.09534607</v>
+        <v>-55535239.09534607</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>11204632.70420392</v>
+        <v>-11204632.70420392</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>95258.89355882703</v>
+        <v>-95258.89355882703</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5442274.428544088</v>
+        <v>-5442274.428544088</v>
       </c>
       <c r="C4">
-        <v>276780.9611545809</v>
+        <v>-276780.9611545809</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>68898154.66824314</v>
+        <v>-68898154.66824314</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>14886485.48643228</v>
+        <v>-14886485.48643228</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>81559.52727720201</v>
+        <v>-81559.52727720201</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5691255.431800588</v>
+        <v>-5691255.431800588</v>
       </c>
       <c r="C4">
-        <v>236976.5541855324</v>
+        <v>-236976.5541855324</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>78263307.30023907</v>
+        <v>-78263307.30023907</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>19267845.47181483</v>
+        <v>-19267845.47181483</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>47945.11830018819</v>
+        <v>-47945.11830018819</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6208771.77277868</v>
+        <v>-6208771.77277868</v>
       </c>
       <c r="C4">
-        <v>139307.6848787995</v>
+        <v>-139307.6848787995</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>90325789.94325449</v>
+        <v>-90325789.94325449</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>24324682.22371085</v>
+        <v>-24324682.22371085</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>54312.84135099594</v>
+        <v>-54312.84135099594</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6790221.603448951</v>
+        <v>-6790221.603448951</v>
       </c>
       <c r="C4">
-        <v>157809.5217207353</v>
+        <v>-157809.5217207353</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>104906703.4294088</v>
+        <v>-104906703.4294088</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>29983641.47364512</v>
+        <v>-29983641.47364512</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>92178.22460516627</v>
+        <v>-92178.22460516627</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7467577.784341153</v>
+        <v>-7467577.784341153</v>
       </c>
       <c r="C4">
-        <v>267829.8755169262</v>
+        <v>-267829.8755169262</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>121810168.6442548</v>
+        <v>-121810168.6442548</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>36119845.04803362</v>
+        <v>-36119845.04803362</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>133560.3946192781</v>
+        <v>-133560.3946192781</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2739,16 +2739,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8048863.442921835</v>
+        <v>-8048863.442921835</v>
       </c>
       <c r="C4">
-        <v>388068.4838322208</v>
+        <v>-388068.4838322208</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>138652094.3048604</v>
+        <v>-138652094.3048604</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>42565691.57981206</v>
+        <v>-42565691.57981206</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.4986577094512076</v>
+        <v>-0.4986577094512076</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2774548108174641</v>
+        <v>-0.2774548108174641</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>189101.5856946997</v>
+        <v>-189101.5856946997</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8577634.052754033</v>
+        <v>-8577634.052754033</v>
       </c>
       <c r="C4">
-        <v>549447.0562175069</v>
+        <v>-549447.0562175069</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>155685484.1210942</v>
+        <v>-155685484.1210942</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>49141159.20943885</v>
+        <v>-49141159.20943885</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>245712.6484891214</v>
+        <v>-245712.6484891214</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9025773.943933299</v>
+        <v>-9025773.943933299</v>
       </c>
       <c r="C4">
-        <v>713934.21103152</v>
+        <v>-713934.21103152</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>172122657.001481</v>
+        <v>-172122657.001481</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>55698862.84436033</v>
+        <v>-55698862.84436033</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>274550.4988808392</v>
+        <v>-274550.4988808392</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8732517.726527464</v>
+        <v>-8732517.726527464</v>
       </c>
       <c r="C4">
-        <v>797724.4761800702</v>
+        <v>-797724.4761800702</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>182326077.7917133</v>
+        <v>-182326077.7917133</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>62181855.08153723</v>
+        <v>-62181855.08153723</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>340975.1405323131</v>
+        <v>-340975.1405323131</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8604442.791108061</v>
+        <v>-8604442.791108061</v>
       </c>
       <c r="C4">
-        <v>990725.6278183673</v>
+        <v>-990725.6278183673</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>194699710.0857372</v>
+        <v>-194699710.0857372</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>68693138.50265446</v>
+        <v>-68693138.50265446</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>547537.2355426066</v>
+        <v>-547537.2355426066</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8559261.290741477</v>
+        <v>-8559261.290741477</v>
       </c>
       <c r="C4">
-        <v>1590905.338700124</v>
+        <v>-1590905.338700124</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>211731423.5576912</v>
+        <v>-211731423.5576912</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>75570251.08836217</v>
+        <v>-75570251.08836217</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>826606.1098216688</v>
+        <v>-826606.1098216688</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8411069.619845048</v>
+        <v>-8411069.619845048</v>
       </c>
       <c r="C4">
-        <v>2401758.250859824</v>
+        <v>-2401758.250859824</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>231571205.4863569</v>
+        <v>-231571205.4863569</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>83452296.57875048</v>
+        <v>-83452296.57875048</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1107099.19514969</v>
+        <v>-1107099.19514969</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3499,16 +3499,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8425524.906887997</v>
+        <v>-8425524.906887997</v>
       </c>
       <c r="C4">
-        <v>3216749.301604709</v>
+        <v>-3216749.301604709</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>256209997.4367262</v>
+        <v>-256209997.4367262</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>93322914.23297073</v>
+        <v>-93322914.23297073</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1316312.356780149</v>
+        <v>-1316312.356780149</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8180227.029060655</v>
+        <v>-8180227.029060655</v>
       </c>
       <c r="C4">
-        <v>3824631.860376054</v>
+        <v>-3824631.860376054</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>283182645.0051708</v>
+        <v>-283182645.0051708</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>106510498.647636</v>
+        <v>-106510498.647636</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1193479.975177383</v>
+        <v>-1193479.975177383</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7825667.943380527</v>
+        <v>-7825667.943380527</v>
       </c>
       <c r="C4">
-        <v>3467734.321775897</v>
+        <v>-3467734.321775897</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>310177974.1640495</v>
+        <v>-310177974.1640495</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>124629977.1854165</v>
+        <v>-124629977.1854165</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1116521.98785702</v>
+        <v>-1116521.98785702</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7301820.56818706</v>
+        <v>-7301820.56818706</v>
       </c>
       <c r="C4">
-        <v>3244127.843647974</v>
+        <v>-3244127.843647974</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>349094604.0277992</v>
+        <v>-349094604.0277992</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>149453824.8722126</v>
+        <v>-149453824.8722126</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.4035530484843</v>
+        <v>-14.4035530484843</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.014184901632509</v>
+        <v>-8.014184901632509</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1077094.645136867</v>
+        <v>-1077094.645136867</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6966571.335493753</v>
+        <v>-6966571.335493753</v>
       </c>
       <c r="C4">
-        <v>3129569.114209069</v>
+        <v>-3129569.114209069</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>405460198.430169</v>
+        <v>-405460198.430169</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>182712498.167766</v>
+        <v>-182712498.167766</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>956380.3299401572</v>
+        <v>-956380.3299401572</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7712706.365008076</v>
+        <v>-7712706.365008076</v>
       </c>
       <c r="C4">
-        <v>2778825.756428736</v>
+        <v>-2778825.756428736</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>485541061.118953</v>
+        <v>-485541061.118953</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>225857541.5449944</v>
+        <v>-225857541.5449944</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>823935.7121730619</v>
+        <v>-823935.7121730619</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9722819.675235052</v>
+        <v>-9722819.675235052</v>
       </c>
       <c r="C4">
-        <v>2393999.235399605</v>
+        <v>-2393999.235399605</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>594033928.6935606</v>
+        <v>-594033928.6935606</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>279821304.4701146</v>
+        <v>-279821304.4701146</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>754832.2570137855</v>
+        <v>-754832.2570137855</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13812365.76444557</v>
+        <v>-13812365.76444557</v>
       </c>
       <c r="C4">
-        <v>2193214.615470386</v>
+        <v>-2193214.615470386</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>739082373.7167541</v>
+        <v>-739082373.7167541</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>344802167.7492334</v>
+        <v>-344802167.7492334</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1043544.110449646</v>
+        <v>-1043544.110449646</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>20323490.49020906</v>
+        <v>-20323490.49020906</v>
       </c>
       <c r="C4">
-        <v>3032085.835839428</v>
+        <v>-3032085.835839428</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>929058414.7353605</v>
+        <v>-929058414.7353605</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>420096863.9690658</v>
+        <v>-420096863.9690658</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1553592.586324467</v>
+        <v>-1553592.586324467</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4449,16 +4449,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>28593890.17732171</v>
+        <v>-28593890.17732171</v>
       </c>
       <c r="C4">
-        <v>4514065.125267996</v>
+        <v>-4514065.125267996</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1152732750.26437</v>
+        <v>-1152732750.26437</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>503993812.0020198</v>
+        <v>-503993812.0020198</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2128804.253467147</v>
+        <v>-2128804.253467147</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>38637802.95968986</v>
+        <v>-38637802.95968986</v>
       </c>
       <c r="C4">
-        <v>6185380.339534697</v>
+        <v>-6185380.339534697</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1401483435.220535</v>
+        <v>-1401483435.220535</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>593742165.2499908</v>
+        <v>-593742165.2499908</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3060512.914886662</v>
+        <v>-3060512.914886662</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>55214867.48847509</v>
+        <v>-55214867.48847509</v>
       </c>
       <c r="C4">
-        <v>8892520.945408816</v>
+        <v>-8892520.945408816</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1710503326.122045</v>
+        <v>-1710503326.122045</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>685612791.0375267</v>
+        <v>-685612791.0375267</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4110372.188564164</v>
+        <v>-4110372.188564164</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>73637402.05915545</v>
+        <v>-73637402.05915545</v>
       </c>
       <c r="C4">
-        <v>11942955.90207836</v>
+        <v>-11942955.90207836</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2031555735.501673</v>
+        <v>-2031555735.501673</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>775070127.6965953</v>
+        <v>-775070127.6965953</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4488760.961194688</v>
+        <v>-4488760.961194688</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4829,16 +4829,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>80051869.4812583</v>
+        <v>-80051869.4812583</v>
       </c>
       <c r="C4">
-        <v>13042389.29108893</v>
+        <v>-13042389.29108893</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2235046295.69057</v>
+        <v>-2235046295.69057</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>857069622.1064811</v>
+        <v>-857069622.1064811</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>102.4059082549475</v>
+        <v>-102.4059082549475</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>56.97898851847027</v>
+        <v>-56.97898851847027</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4485202.291621592</v>
+        <v>-4485202.291621592</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5019,16 +5019,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>79727126.5795635</v>
+        <v>-79727126.5795635</v>
       </c>
       <c r="C4">
-        <v>13032049.34331004</v>
+        <v>-13032049.34331004</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2357325966.469188</v>
+        <v>-2357325966.469188</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>926476990.6661767</v>
+        <v>-926476990.6661767</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4419133.650204656</v>
+        <v>-4419133.650204656</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5114,16 +5114,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>78269210.52826057</v>
+        <v>-78269210.52826057</v>
       </c>
       <c r="C4">
-        <v>12840082.57369536</v>
+        <v>-12840082.57369536</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2438686930.620778</v>
+        <v>-2438686930.620778</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>978574511.3879879</v>
+        <v>-978574511.3879879</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4282476.628328182</v>
+        <v>-4282476.628328182</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5209,16 +5209,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>75438601.75605787</v>
+        <v>-75438601.75605787</v>
       </c>
       <c r="C4">
-        <v>12443016.63632821</v>
+        <v>-12443016.63632821</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2470393641.165859</v>
+        <v>-2470393641.165859</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1009586058.102951</v>
+        <v>-1009586058.102951</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4131377.54595991</v>
+        <v>-4131377.54595991</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>72058025.0219903</v>
+        <v>-72058025.0219903</v>
       </c>
       <c r="C4">
-        <v>12003988.34526751</v>
+        <v>-12003988.34526751</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2455549392.221612</v>
+        <v>-2455549392.221612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1017130988.254443</v>
+        <v>-1017130988.254443</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4062902.595624943</v>
+        <v>-4062902.595624943</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>69761756.97813107</v>
+        <v>-69761756.97813107</v>
       </c>
       <c r="C4">
-        <v>11805029.88731502</v>
+        <v>-11805029.88731502</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2407227290.109755</v>
+        <v>-2407227290.109755</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1000519249.469133</v>
+        <v>-1000519249.469133</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3912686.617019213</v>
+        <v>-3912686.617019213</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>65983581.02835017</v>
+        <v>-65983581.02835017</v>
       </c>
       <c r="C4">
-        <v>11368567.51213958</v>
+        <v>-11368567.51213958</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2304601632.933053</v>
+        <v>-2304601632.933053</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>960829737.7898959</v>
+        <v>-960829737.7898959</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3387405.112493821</v>
+        <v>-3387405.112493821</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>56367244.67159247</v>
+        <v>-56367244.67159247</v>
       </c>
       <c r="C4">
-        <v>9842327.659170073</v>
+        <v>-9842327.659170073</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2113535941.567895</v>
+        <v>-2113535941.567895</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>900763287.5222806</v>
+        <v>-900763287.5222806</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2277192.301387544</v>
+        <v>-2277192.301387544</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5684,16 +5684,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>37543650.62752465</v>
+        <v>-37543650.62752465</v>
       </c>
       <c r="C4">
-        <v>6616531.542250443</v>
+        <v>-6616531.542250443</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1811463543.006354</v>
+        <v>-1811463543.006354</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>824313168.4825375</v>
+        <v>-824313168.4825375</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>985716.2369044855</v>
+        <v>-985716.2369044855</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5779,16 +5779,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>16436292.61689906</v>
+        <v>-16436292.61689906</v>
       </c>
       <c r="C4">
-        <v>2864063.157605497</v>
+        <v>-2864063.157605497</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1467555680.368253</v>
+        <v>-1467555680.368253</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>736329382.3133736</v>
+        <v>-736329382.3133736</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>452939.1853372609</v>
+        <v>-452939.1853372609</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8768326.886365985</v>
+        <v>-8768326.886365985</v>
       </c>
       <c r="C4">
-        <v>1316044.501239151</v>
+        <v>-1316044.501239151</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1229090012.77146</v>
+        <v>-1229090012.77146</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>642055184.5791545</v>
+        <v>-642055184.5791545</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.314642025772212E-11</v>
+        <v>-4.314642025772212E-11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5969,16 +5969,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.017697256591589E-08</v>
+        <v>-3.017697256591589E-08</v>
       </c>
       <c r="C4">
-        <v>1.253647530761731E-10</v>
+        <v>-1.253647530761731E-10</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>428.9221044264933</v>
+        <v>-428.9221044264933</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>238.6536877339686</v>
+        <v>-238.6536877339686</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>389414.0778720443</v>
+        <v>-389414.0778720443</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8240121.722056284</v>
+        <v>-8240121.722056284</v>
       </c>
       <c r="C4">
-        <v>1131468.136295204</v>
+        <v>-1131468.136295204</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1052284625.742637</v>
+        <v>-1052284625.742637</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>546687324.9454429</v>
+        <v>-546687324.9454429</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>331501.9198330073</v>
+        <v>-331501.9198330073</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7689414.133655227</v>
+        <v>-7689414.133655227</v>
       </c>
       <c r="C4">
-        <v>963200.5639379629</v>
+        <v>-963200.5639379629</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>882026793.9976764</v>
+        <v>-882026793.9976764</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>454978559.9268035</v>
+        <v>-454978559.9268035</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>219779.9991904739</v>
+        <v>-219779.9991904739</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6428254.659948562</v>
+        <v>-6428254.659948562</v>
       </c>
       <c r="C4">
-        <v>638585.198146631</v>
+        <v>-638585.198146631</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>718953063.5615468</v>
+        <v>-718953063.5615468</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>370885633.2974247</v>
+        <v>-370885633.2974247</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>147838.127211358</v>
+        <v>-147838.127211358</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6349,16 +6349,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5309599.987704949</v>
+        <v>-5309599.987704949</v>
       </c>
       <c r="C4">
-        <v>429553.3720385229</v>
+        <v>-429553.3720385229</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>576730941.9844749</v>
+        <v>-576730941.9844749</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>297278191.5064013</v>
+        <v>-297278191.5064013</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>239922.856658282</v>
+        <v>-239922.856658282</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6444,16 +6444,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6362543.658573261</v>
+        <v>-6362543.658573261</v>
       </c>
       <c r="C4">
-        <v>697111.5912429008</v>
+        <v>-697111.5912429008</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>476089142.599871</v>
+        <v>-476089142.599871</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>235751540.7370514</v>
+        <v>-235751540.7370514</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>437705.4783294051</v>
+        <v>-437705.4783294051</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6539,16 +6539,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8524970.486360516</v>
+        <v>-8524970.486360516</v>
       </c>
       <c r="C4">
-        <v>1271781.96668664</v>
+        <v>-1271781.96668664</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>408369295.9144833</v>
+        <v>-408369295.9144833</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>186599848.1474812</v>
+        <v>-186599848.1474812</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>614192.0102052666</v>
+        <v>-614192.0102052666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10766869.98073236</v>
+        <v>-10766869.98073236</v>
       </c>
       <c r="C4">
-        <v>1784575.156891746</v>
+        <v>-1784575.156891746</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>361447175.3302304</v>
+        <v>-361447175.3302304</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>148983369.2212642</v>
+        <v>-148983369.2212642</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>740617.2413002345</v>
+        <v>-740617.2413002345</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12961918.33249327</v>
+        <v>-12961918.33249327</v>
       </c>
       <c r="C4">
-        <v>2151911.955266859</v>
+        <v>-2151911.955266859</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>330760547.8504243</v>
+        <v>-330760547.8504243</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>121265757.0313768</v>
+        <v>-121265757.0313768</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>778083.0567250468</v>
+        <v>-778083.0567250468</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6824,16 +6824,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13677583.50857223</v>
+        <v>-13677583.50857223</v>
       </c>
       <c r="C4">
-        <v>2260771.338536053</v>
+        <v>-2260771.338536053</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>301267874.8975238</v>
+        <v>-301267874.8975238</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101436355.580976</v>
+        <v>-101436355.580976</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>600145.7482279913</v>
+        <v>-600145.7482279913</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6919,16 +6919,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10457568.10146882</v>
+        <v>-10457568.10146882</v>
       </c>
       <c r="C4">
-        <v>1743762.821733786</v>
+        <v>-1743762.821733786</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>248349806.8192855</v>
+        <v>-248349806.8192855</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>87504600.61923431</v>
+        <v>-87504600.61923431</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.610359011398237E-09</v>
+        <v>-4.610359011398237E-09</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7014,16 +7014,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.711827080343465E-06</v>
+        <v>-2.711827080343465E-06</v>
       </c>
       <c r="C4">
-        <v>1.339570039887623E-08</v>
+        <v>-1.339570039887623E-08</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1407.342602595991</v>
+        <v>-1407.342602595991</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>783.0501015413901</v>
+        <v>-783.0501015413901</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>274127.7351497989</v>
+        <v>-274127.7351497989</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4663348.022526064</v>
+        <v>-4663348.022526064</v>
       </c>
       <c r="C4">
-        <v>796496.10843983</v>
+        <v>-796496.10843983</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>180557734.9228617</v>
+        <v>-180557734.9228617</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>77776388.48923852</v>
+        <v>-77776388.48923852</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>60382.8618218565</v>
+        <v>-60382.8618218565</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7204,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>948387.6804704624</v>
+        <v>-948387.6804704624</v>
       </c>
       <c r="C4">
-        <v>175446.3641969209</v>
+        <v>-175446.3641969209</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>135974589.4583946</v>
+        <v>-135974589.4583946</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>70980507.04168496</v>
+        <v>-70980507.04168496</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4465.571970373121</v>
+        <v>-4465.571970373121</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>46990.71022346417</v>
+        <v>-46990.71022346417</v>
       </c>
       <c r="C4">
-        <v>12975.01215780495</v>
+        <v>-12975.01215780495</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>119557008.4319463</v>
+        <v>-119557008.4319463</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>66270362.82460655</v>
+        <v>-66270362.82460655</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>215.8285265853231</v>
+        <v>-215.8285265853231</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3491.815268173533</v>
+        <v>-3491.815268173533</v>
       </c>
       <c r="C4">
-        <v>627.1039354028616</v>
+        <v>-627.1039354028616</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>113533743.3692335</v>
+        <v>-113533743.3692335</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>63153423.45839095</v>
+        <v>-63153423.45839095</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>484.3834395569323</v>
+        <v>-484.3834395569323</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7489,16 +7489,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12262.44999872914</v>
+        <v>-12262.44999872914</v>
       </c>
       <c r="C4">
-        <v>1407.407843606077</v>
+        <v>-1407.407843606077</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>110442751.3729351</v>
+        <v>-110442751.3729351</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>61394245.78050552</v>
+        <v>-61394245.78050552</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1867.658803232978</v>
+        <v>-1867.658803232978</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7584,16 +7584,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>46314.24914610129</v>
+        <v>-46314.24914610129</v>
       </c>
       <c r="C4">
-        <v>5426.605111137543</v>
+        <v>-5426.605111137543</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>109864769.3578359</v>
+        <v>-109864769.3578359</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>60915330.38889998</v>
+        <v>-60915330.38889998</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6596.641725954703</v>
+        <v>-6596.641725954703</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7679,16 +7679,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>160422.2640872451</v>
+        <v>-160422.2640872451</v>
       </c>
       <c r="C4">
-        <v>19166.9750622772</v>
+        <v>-19166.9750622772</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>112233121.2593738</v>
+        <v>-112233121.2593738</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>61704632.24645328</v>
+        <v>-61704632.24645328</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>21372.9895244039</v>
+        <v>-21372.9895244039</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>509096.748844507</v>
+        <v>-509096.748844507</v>
       </c>
       <c r="C4">
-        <v>62100.62244380474</v>
+        <v>-62100.62244380474</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>118793850.5979806</v>
+        <v>-118793850.5979806</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>63735866.91154265</v>
+        <v>-63735866.91154265</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>62692.89884324499</v>
+        <v>-62692.89884324499</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7869,16 +7869,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1453050.655581841</v>
+        <v>-1453050.655581841</v>
       </c>
       <c r="C4">
-        <v>182158.3282266913</v>
+        <v>-182158.3282266913</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>132411304.9842581</v>
+        <v>-132411304.9842581</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>66911385.37609636</v>
+        <v>-66911385.37609636</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>159690.1493499336</v>
+        <v>-159690.1493499336</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7964,16 +7964,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3541046.445116159</v>
+        <v>-3541046.445116159</v>
       </c>
       <c r="C4">
-        <v>463990.1994735856</v>
+        <v>-463990.1994735856</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>157460160.8106031</v>
+        <v>-157460160.8106031</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>71037720.09452279</v>
+        <v>-71037720.09452279</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.194577315983031E-07</v>
+        <v>-2.194577315983031E-07</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8059,16 +8059,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0001073768475646465</v>
+        <v>-0.0001073768475646465</v>
       </c>
       <c r="C4">
-        <v>6.376488285271903E-07</v>
+        <v>-6.376488285271903E-07</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3996.147468921459</v>
+        <v>-3996.147468921459</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2223.469324601207</v>
+        <v>-2223.469324601207</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>325489.0615000552</v>
+        <v>-325489.0615000552</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6727928.931816573</v>
+        <v>-6727928.931816573</v>
       </c>
       <c r="C4">
-        <v>945729.809801468</v>
+        <v>-945729.809801468</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>193429155.7372571</v>
+        <v>-193429155.7372571</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>75837460.33471355</v>
+        <v>-75837460.33471355</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>482157.9337042074</v>
+        <v>-482157.9337042074</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8249,16 +8249,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9280976.282884071</v>
+        <v>-9280976.282884071</v>
       </c>
       <c r="C4">
-        <v>1400941.490429384</v>
+        <v>-1400941.490429384</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>225173447.4943294</v>
+        <v>-225173447.4943294</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>80991045.917454</v>
+        <v>-80991045.917454</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>521277.2074107153</v>
+        <v>-521277.2074107153</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9730220.111675367</v>
+        <v>-9730220.111675367</v>
       </c>
       <c r="C4">
-        <v>1514605.105149724</v>
+        <v>-1514605.105149724</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>238758452.8743028</v>
+        <v>-238758452.8743028</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>86192998.0331482</v>
+        <v>-86192998.0331482</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>524671.1223149033</v>
+        <v>-524671.1223149033</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8439,16 +8439,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9536240.571555065</v>
+        <v>-9536240.571555065</v>
       </c>
       <c r="C4">
-        <v>1524466.347435495</v>
+        <v>-1524466.347435495</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>246425162.0089229</v>
+        <v>-246425162.0089229</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>91203079.85172422</v>
+        <v>-91203079.85172422</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>583683.7866529865</v>
+        <v>-583683.7866529865</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10129324.52880532</v>
+        <v>-10129324.52880532</v>
       </c>
       <c r="C4">
-        <v>1695931.51300243</v>
+        <v>-1695931.51300243</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>260593013.038035</v>
+        <v>-260593013.038035</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>95875441.62888739</v>
+        <v>-95875441.62888739</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>660549.7360424913</v>
+        <v>-660549.7360424913</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11071978.89949211</v>
+        <v>-11071978.89949211</v>
       </c>
       <c r="C4">
-        <v>1919270.568887518</v>
+        <v>-1919270.568887518</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>277050328.8352615</v>
+        <v>-277050328.8352615</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>100157381.9207492</v>
+        <v>-100157381.9207492</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>680751.8994915681</v>
+        <v>-680751.8994915681</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8724,16 +8724,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11351339.20499629</v>
+        <v>-11351339.20499629</v>
       </c>
       <c r="C4">
-        <v>1977969.279400929</v>
+        <v>-1977969.279400929</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>286600596.8970765</v>
+        <v>-286600596.8970765</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>104061193.5504255</v>
+        <v>-104061193.5504255</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>622832.7061597198</v>
+        <v>-622832.7061597198</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10640364.09636895</v>
+        <v>-10640364.09636895</v>
       </c>
       <c r="C4">
-        <v>1809681.265539136</v>
+        <v>-1809681.265539136</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>286394420.7619634</v>
+        <v>-286394420.7619634</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>107622562.0665953</v>
+        <v>-107622562.0665953</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>515552.952357724</v>
+        <v>-515552.952357724</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8914,16 +8914,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9083657.051081095</v>
+        <v>-9083657.051081095</v>
       </c>
       <c r="C4">
-        <v>1497972.906766247</v>
+        <v>-1497972.906766247</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>278225346.8379189</v>
+        <v>-278225346.8379189</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>110862938.753586</v>
+        <v>-110862938.753586</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>393551.8238024974</v>
+        <v>-393551.8238024974</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7033229.545919304</v>
+        <v>-7033229.545919304</v>
       </c>
       <c r="C4">
-        <v>1143490.628399177</v>
+        <v>-1143490.628399177</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>265485753.8721311</v>
+        <v>-265485753.8721311</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>113769436.9965484</v>
+        <v>-113769436.9965484</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.061718312848707E-06</v>
+        <v>-6.061718312848707E-06</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9104,16 +9104,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.002412169909915786</v>
+        <v>-0.002412169909915786</v>
       </c>
       <c r="C4">
-        <v>1.761272001172768E-05</v>
+        <v>-1.761272001172768E-05</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10074.61392654264</v>
+        <v>-10074.61392654264</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5605.538846449458</v>
+        <v>-5605.538846449458</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>290575.0898826746</v>
+        <v>-290575.0898826746</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5212338.648334024</v>
+        <v>-5212338.648334024</v>
       </c>
       <c r="C4">
-        <v>844284.9760336408</v>
+        <v>-844284.9760336408</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>254205001.0116772</v>
+        <v>-254205001.0116772</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>116296439.6376413</v>
+        <v>-116296439.6376413</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>267766.2269071493</v>
+        <v>-267766.2269071493</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9294,16 +9294,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4835462.094141526</v>
+        <v>-4835462.094141526</v>
       </c>
       <c r="C4">
-        <v>778012.3291304894</v>
+        <v>-778012.3291304894</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>254644947.0517413</v>
+        <v>-254644947.0517413</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>118383501.6280602</v>
+        <v>-118383501.6280602</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>326346.5229596046</v>
+        <v>-326346.5229596046</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9389,16 +9389,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5901672.301488359</v>
+        <v>-5901672.301488359</v>
       </c>
       <c r="C4">
-        <v>948221.2202940804</v>
+        <v>-948221.2202940804</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>266734859.3853502</v>
+        <v>-266734859.3853502</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>119978588.1963745</v>
+        <v>-119978588.1963745</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>390647.6201618225</v>
+        <v>-390647.6201618225</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9484,16 +9484,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7035115.908447035</v>
+        <v>-7035115.908447035</v>
       </c>
       <c r="C4">
-        <v>1135052.274298852</v>
+        <v>-1135052.274298852</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>278525421.2120491</v>
+        <v>-278525421.2120491</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>121056202.4899355</v>
+        <v>-121056202.4899355</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>422632.7256320547</v>
+        <v>-422632.7256320547</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7579970.092431936</v>
+        <v>-7579970.092431936</v>
       </c>
       <c r="C4">
-        <v>1227987.095436727</v>
+        <v>-1227987.095436727</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>284310028.8258598</v>
+        <v>-284310028.8258598</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>121624721.5229411</v>
+        <v>-121624721.5229411</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>431117.0813903136</v>
+        <v>-431117.0813903136</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9674,16 +9674,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7725163.308517613</v>
+        <v>-7725163.308517613</v>
       </c>
       <c r="C4">
-        <v>1252638.947393187</v>
+        <v>-1252638.947393187</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>285754767.840836</v>
+        <v>-285754767.840836</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>121722916.2914694</v>
+        <v>-121722916.2914694</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>432339.5834016962</v>
+        <v>-432339.5834016962</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9769,16 +9769,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7768213.576437692</v>
+        <v>-7768213.576437692</v>
       </c>
       <c r="C4">
-        <v>1256191.007144069</v>
+        <v>-1256191.007144069</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>285536406.6154588</v>
+        <v>-285536406.6154588</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>121409612.9126886</v>
+        <v>-121409612.9126886</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>434223.617619</v>
+        <v>-434223.617619</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9864,16 +9864,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7847500.244344188</v>
+        <v>-7847500.244344188</v>
       </c>
       <c r="C4">
-        <v>1261665.192094489</v>
+        <v>-1261665.192094489</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>284979317.7838854</v>
+        <v>-284979317.7838854</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>120751344.1537446</v>
+        <v>-120751344.1537446</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>445250.0998525696</v>
+        <v>-445250.0998525696</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8106966.438235101</v>
+        <v>-8106966.438235101</v>
       </c>
       <c r="C4">
-        <v>1293703.359206693</v>
+        <v>-1293703.359206693</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>285456781.4405854</v>
+        <v>-285456781.4405854</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>119811682.470648</v>
+        <v>-119811682.470648</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>474388.8097115101</v>
+        <v>-474388.8097115101</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10054,16 +10054,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8670883.541019889</v>
+        <v>-8670883.541019889</v>
       </c>
       <c r="C4">
-        <v>1378367.791263963</v>
+        <v>-1378367.791263963</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>288191626.1110472</v>
+        <v>-288191626.1110472</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>118644019.4497128</v>
+        <v>-118644019.4497128</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-290258297.5629358</v>
+        <v>-290258297.5629359</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-5884353.899284202</v>
+        <v>-5884353.899284203</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-78263307.30023907</v>
+        <v>-78263307.30023909</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-155685484.1210942</v>
+        <v>-155685484.1210941</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-929058414.7353605</v>
+        <v>-929058414.7353606</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2455549392.221612</v>
+        <v>-2455549392.221611</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2304601632.933053</v>
+        <v>-2304601632.933054</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-285754767.840836</v>
+        <v>-285754767.8408359</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
@@ -122,16 +122,16 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Nd</t>
+    <t>Neodymium</t>
   </si>
   <si>
-    <t>Dy</t>
+    <t>Dysprosium</t>
   </si>
   <si>
-    <t>Cu</t>
+    <t>Copper ores and concentrates</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Raw silicon</t>
   </si>
   <si>
     <t>Region</t>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-290258297.5629359</v>
+        <v>-290258297.5629358</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-48234.30674689903</v>
+        <v>-48234.30674689904</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-78263307.30023909</v>
+        <v>-78263307.30023907</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-155685484.1210941</v>
+        <v>-155685484.1210942</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5051,7 +5051,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-256209997.4367263</v>
+        <v>-256209997.4367262</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-405460198.4301691</v>
+        <v>-405460198.430169</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6195,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-739082373.7167542</v>
+        <v>-739082373.7167541</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-929058414.7353606</v>
+        <v>-929058414.7353605</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2455549392.221611</v>
+        <v>-2455549392.221612</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2304601632.933054</v>
+        <v>-2304601632.933053</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-718953063.5615469</v>
+        <v>-718953063.5615468</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-576730941.984475</v>
+        <v>-576730941.9844749</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11200,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-109864769.3578358</v>
+        <v>-109864769.3578359</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11915,7 +11915,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3996.14746892146</v>
+        <v>-3996.147468921459</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12058,7 +12058,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-193429155.7372572</v>
+        <v>-193429155.7372571</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14346,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285754767.8408359</v>
+        <v>-285754767.840836</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
@@ -116,10 +116,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="13">
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>EU27+UK</t>
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Onshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Offshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Silicon layer in PV panel</t>
+  </si>
+  <si>
+    <t>Refinery of Cu in wires of WT and PV</t>
   </si>
   <si>
     <t>Neodymium</t>
@@ -132,27 +153,6 @@
   </si>
   <si>
     <t>Raw silicon</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Generator Onshore</t>
-  </si>
-  <si>
-    <t>Generator Offshore</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Wires</t>
   </si>
 </sst>
 </file>
@@ -517,55 +517,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -660,55 +655,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -803,55 +793,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -904,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-290258297.5629358</v>
+        <v>-290258297.5629359</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -946,55 +931,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1089,55 +1069,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1190,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-48234.30674689904</v>
+        <v>-48234.30674689903</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1232,55 +1207,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1375,55 +1345,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1518,55 +1483,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1661,55 +1621,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1804,55 +1759,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1947,55 +1897,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2090,55 +2035,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2233,55 +2173,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2376,55 +2311,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2519,55 +2449,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2662,55 +2587,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2805,55 +2725,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2948,55 +2863,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3091,55 +3001,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3234,55 +3139,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3335,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-78263307.30023907</v>
+        <v>-78263307.30023909</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3377,55 +3277,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3520,55 +3415,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3663,55 +3553,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3806,55 +3691,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3949,55 +3829,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4092,55 +3967,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4193,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-155685484.1210942</v>
+        <v>-155685484.1210941</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4235,55 +4105,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4378,55 +4243,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4521,55 +4381,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4664,55 +4519,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4807,55 +4657,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4950,55 +4795,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5051,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-256209997.4367262</v>
+        <v>-256209997.4367263</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5093,55 +4933,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5236,55 +5071,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5379,55 +5209,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5522,55 +5347,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5665,55 +5485,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5766,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-405460198.430169</v>
+        <v>-405460198.4301691</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5808,55 +5623,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5951,55 +5761,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6094,55 +5899,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6195,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-739082373.7167541</v>
+        <v>-739082373.7167542</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6237,55 +6037,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6338,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-929058414.7353605</v>
+        <v>-929058414.7353606</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6380,55 +6175,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6523,55 +6313,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6666,55 +6451,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6809,55 +6589,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6952,55 +6727,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7095,55 +6865,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7238,55 +7003,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7381,55 +7141,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7524,55 +7279,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7667,55 +7417,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7768,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2455549392.221612</v>
+        <v>-2455549392.221611</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7810,55 +7555,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7953,55 +7693,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8054,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2304601632.933053</v>
+        <v>-2304601632.933054</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8096,55 +7831,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8239,55 +7969,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8382,55 +8107,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8525,55 +8245,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8668,55 +8383,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8811,55 +8521,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8954,55 +8659,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9097,55 +8797,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9198,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-718953063.5615468</v>
+        <v>-718953063.5615469</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9240,55 +8935,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9341,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-576730941.9844749</v>
+        <v>-576730941.984475</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9383,55 +9073,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9526,55 +9211,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9669,55 +9349,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9812,55 +9487,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9955,55 +9625,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10098,55 +9763,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10241,55 +9901,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10384,55 +10039,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10527,55 +10177,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10670,55 +10315,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10813,55 +10453,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10956,55 +10591,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11099,55 +10729,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11200,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-109864769.3578359</v>
+        <v>-109864769.3578358</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11242,55 +10867,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11385,55 +11005,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11528,55 +11143,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11671,55 +11281,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11814,55 +11419,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11915,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3996.147468921459</v>
+        <v>-3996.14746892146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11957,55 +11557,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12058,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-193429155.7372571</v>
+        <v>-193429155.7372572</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12100,55 +11695,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12243,55 +11833,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12386,55 +11971,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12529,55 +12109,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12672,55 +12247,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12815,55 +12385,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12958,55 +12523,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13101,55 +12661,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13244,55 +12799,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13387,55 +12937,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13530,55 +13075,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13673,55 +13213,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13816,55 +13351,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13959,55 +13489,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14102,55 +13627,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14245,55 +13765,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14346,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285754767.840836</v>
+        <v>-285754767.8408359</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14388,55 +13903,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14531,55 +14041,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14674,55 +14179,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14817,55 +14317,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>

--- a/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0001098927209492289</v>
+        <v>-1.098927209492289E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.03577878837634658</v>
+        <v>-3.577878837634661E-08</v>
       </c>
       <c r="E7">
-        <v>-0.0003193005061457723</v>
+        <v>-3.193005061457723E-10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-22912.87329958029</v>
+        <v>-0.02291287329958029</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-12748.6518389693</v>
+        <v>-0.01274865183896931</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-505694.9659530112</v>
+        <v>-0.5056949659530123</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9182588.719506035</v>
+        <v>-9.182588719506029</v>
       </c>
       <c r="E7">
-        <v>-1469329.880900529</v>
+        <v>-1.469329880900533</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-290258297.5629359</v>
+        <v>-290.2582975629357</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117288023.1056296</v>
+        <v>-117.2880231056295</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-508328.0924459061</v>
+        <v>-0.5083280924459074</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9059698.116002286</v>
+        <v>-9.059698116002256</v>
       </c>
       <c r="E7">
-        <v>-1476980.602574039</v>
+        <v>-1.476980602574042</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-286693285.8718672</v>
+        <v>-286.6932858718668</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115769461.4590415</v>
+        <v>-115.7694614590414</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.001423655537075314</v>
+        <v>-1.423655537075313E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.3864070425834964</v>
+        <v>-3.864070425834965E-07</v>
       </c>
       <c r="E7">
-        <v>-0.004136524508983584</v>
+        <v>-4.136524508983583E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-48234.30674689903</v>
+        <v>-0.04823430674689904</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-26836.13604016033</v>
+        <v>-0.02683613604016033</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01404147466692195</v>
+        <v>-1.404147466692195E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.248431973341837</v>
+        <v>-3.248431973341838E-06</v>
       </c>
       <c r="E7">
-        <v>-0.04079842531383493</v>
+        <v>-4.079842531383492E-08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-96322.21436404312</v>
+        <v>-0.0963222143640431</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-53580.58168093058</v>
+        <v>-0.05358058168093058</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1106614283581194</v>
+        <v>-1.106614283581194E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-22.29558200911343</v>
+        <v>-2.229558200911345E-05</v>
       </c>
       <c r="E7">
-        <v>-0.3215340359247843</v>
+        <v>-3.215340359247842E-07</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-185322.0771402828</v>
+        <v>-0.1853220771402827</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-103021.5254322925</v>
+        <v>-0.1030215254322926</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7234515490260532</v>
+        <v>-7.234515490260531E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-129.4153141646262</v>
+        <v>-0.0001294153141646262</v>
       </c>
       <c r="E7">
-        <v>-2.102035910846948</v>
+        <v>-2.102035910846948E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-347057.4497445057</v>
+        <v>-0.3470574497445057</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-192567.0954067092</v>
+        <v>-0.1925670954067092</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.040018768018873</v>
+        <v>-4.040018768018873E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-652.5312715924496</v>
+        <v>-0.0006525312715924498</v>
       </c>
       <c r="E7">
-        <v>-11.73853942576256</v>
+        <v>-1.173853942576255E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-634668.3241552198</v>
+        <v>-0.6346683241552197</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-350419.5283467253</v>
+        <v>-0.3504195283467254</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-19.72432266703868</v>
+        <v>-1.972432266703868E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2917.894780863563</v>
+        <v>-0.002917894780863563</v>
       </c>
       <c r="E7">
-        <v>-57.31031279021372</v>
+        <v>-5.731031279021372E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1131346.68373563</v>
+        <v>-1.131346683735631</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-617335.3977269576</v>
+        <v>-0.6173353977269576</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-85.76326271539186</v>
+        <v>-8.576326271539185E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11759.18321557489</v>
+        <v>-0.01175918321557489</v>
       </c>
       <c r="E7">
-        <v>-249.1907831310243</v>
+        <v>-0.0002491907831310243</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1969408.793835186</v>
+        <v>-1.969408793835186</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1046737.640590358</v>
+        <v>-1.046737640590358</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-336.9703820102285</v>
+        <v>-0.0003369703820102284</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-43216.64957599159</v>
+        <v>-0.0432166495759916</v>
       </c>
       <c r="E7">
-        <v>-979.0895393491049</v>
+        <v>-0.0009790895393491045</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3386813.48497012</v>
+        <v>-3.38681348497012</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1703882.655556174</v>
+        <v>-1.703882655556174</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1208.84337372491</v>
+        <v>-0.00120884337372491</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-145738.9119443938</v>
+        <v>-0.1457389119443938</v>
       </c>
       <c r="E7">
-        <v>-3512.373683600517</v>
+        <v>-0.003512373683600517</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-5884353.899284202</v>
+        <v>-5.884353899284202</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2664225.571147704</v>
+        <v>-2.664225571147704</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3975.40385556021</v>
+        <v>-0.003975403855560209</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-448987.384139424</v>
+        <v>-0.4489873841394241</v>
       </c>
       <c r="E7">
-        <v>-11550.79656095399</v>
+        <v>-0.01155079656095399</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-10590896.13778013</v>
+        <v>-10.59089613778013</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4010624.213820767</v>
+        <v>-4.010624213820768</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-11880.44681738437</v>
+        <v>-0.01188044681738436</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1229555.514757405</v>
+        <v>-1.229555514757405</v>
       </c>
       <c r="E7">
-        <v>-34519.41720308616</v>
+        <v>-0.03451941720308615</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-19764172.53546776</v>
+        <v>-19.76417253546776</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5829080.04607178</v>
+        <v>-5.829080046071781</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-31128.14700231029</v>
+        <v>-0.03112814700231029</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2784293.602599983</v>
+        <v>-2.784293602599982</v>
       </c>
       <c r="E7">
-        <v>-90444.87212041704</v>
+        <v>-0.09044487212041702</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-35876949.13971998</v>
+        <v>-35.87694913971998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-8202847.918634115</v>
+        <v>-8.202847918634115</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-65585.65671037442</v>
+        <v>-0.06558565671037439</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4618883.221809466</v>
+        <v>-4.618883221809465</v>
       </c>
       <c r="E7">
-        <v>-190563.4258815061</v>
+        <v>-0.1905634258815061</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-55535239.09534607</v>
+        <v>-55.53523909534606</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-11204632.70420392</v>
+        <v>-11.20463270420392</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-95258.89355882703</v>
+        <v>-0.095258893558827</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5442274.428544088</v>
+        <v>-5.442274428544088</v>
       </c>
       <c r="E7">
-        <v>-276780.9611545809</v>
+        <v>-0.2767809611545808</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68898154.66824314</v>
+        <v>-68.89815466824311</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-14886485.48643228</v>
+        <v>-14.88648548643229</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-81559.52727720201</v>
+        <v>-0.08155952727720199</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5691255.431800588</v>
+        <v>-5.691255431800586</v>
       </c>
       <c r="E7">
-        <v>-236976.5541855324</v>
+        <v>-0.2369765541855323</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-78263307.30023909</v>
+        <v>-78.26330730023905</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-19267845.47181483</v>
+        <v>-19.26784547181483</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-47945.11830018819</v>
+        <v>-0.04794511830018818</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6208771.77277868</v>
+        <v>-6.208771772778681</v>
       </c>
       <c r="E7">
-        <v>-139307.6848787995</v>
+        <v>-0.1393076848787994</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-90325789.94325449</v>
+        <v>-90.32578994325449</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-24324682.22371085</v>
+        <v>-24.32468222371085</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-54312.84135099594</v>
+        <v>-0.05431284135099596</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6790221.603448951</v>
+        <v>-6.790221603448951</v>
       </c>
       <c r="E7">
-        <v>-157809.5217207353</v>
+        <v>-0.1578095217207353</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-104906703.4294088</v>
+        <v>-104.9067034294088</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-29983641.47364512</v>
+        <v>-29.98364147364513</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-92178.22460516627</v>
+        <v>-0.09217822460516628</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7467577.784341153</v>
+        <v>-7.467577784341156</v>
       </c>
       <c r="E7">
-        <v>-267829.8755169262</v>
+        <v>-0.2678298755169262</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-121810168.6442548</v>
+        <v>-121.8101686442548</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-36119845.04803362</v>
+        <v>-36.11984504803363</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-133560.3946192781</v>
+        <v>-0.1335603946192781</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8048863.442921835</v>
+        <v>-8.048863442921839</v>
       </c>
       <c r="E7">
-        <v>-388068.4838322208</v>
+        <v>-0.3880684838322208</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-138652094.3048604</v>
+        <v>-138.6520943048604</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-42565691.57981206</v>
+        <v>-42.56569157981205</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.4986577094512076</v>
+        <v>-4.986577094512076E-07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2774548108174641</v>
+        <v>-2.77454810817464E-07</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-189101.5856946997</v>
+        <v>-0.1891015856946997</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8577634.052754033</v>
+        <v>-8.577634052754032</v>
       </c>
       <c r="E7">
-        <v>-549447.0562175069</v>
+        <v>-0.5494470562175069</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-155685484.1210941</v>
+        <v>-155.6854841210941</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-49141159.20943885</v>
+        <v>-49.14115920943883</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-245712.6484891214</v>
+        <v>-0.2457126484891216</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9025773.943933299</v>
+        <v>-9.025773943933304</v>
       </c>
       <c r="E7">
-        <v>-713934.21103152</v>
+        <v>-0.7139342110315203</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-172122657.001481</v>
+        <v>-172.1226570014811</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-55698862.84436033</v>
+        <v>-55.69886284436034</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-274550.4988808392</v>
+        <v>-0.2745504988808392</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8732517.726527464</v>
+        <v>-8.732517726527471</v>
       </c>
       <c r="E7">
-        <v>-797724.4761800702</v>
+        <v>-0.7977244761800704</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-182326077.7917133</v>
+        <v>-182.3260777917133</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-62181855.08153723</v>
+        <v>-62.18185508153721</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-340975.1405323131</v>
+        <v>-0.3409751405323132</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8604442.791108061</v>
+        <v>-8.604442791108069</v>
       </c>
       <c r="E7">
-        <v>-990725.6278183673</v>
+        <v>-0.9907256278183675</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-194699710.0857372</v>
+        <v>-194.6997100857372</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-68693138.50265446</v>
+        <v>-68.69313850265449</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-547537.2355426066</v>
+        <v>-0.5475372355426066</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8559261.290741477</v>
+        <v>-8.559261290741478</v>
       </c>
       <c r="E7">
-        <v>-1590905.338700124</v>
+        <v>-1.590905338700125</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-211731423.5576912</v>
+        <v>-211.7314235576912</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-75570251.08836217</v>
+        <v>-75.57025108836217</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-826606.1098216688</v>
+        <v>-0.8266061098216693</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8411069.619845048</v>
+        <v>-8.411069619845048</v>
       </c>
       <c r="E7">
-        <v>-2401758.250859824</v>
+        <v>-2.401758250859825</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-231571205.4863569</v>
+        <v>-231.5712054863569</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83452296.57875048</v>
+        <v>-83.45229657875046</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1107099.19514969</v>
+        <v>-1.10709919514969</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8425524.906887997</v>
+        <v>-8.425524906888</v>
       </c>
       <c r="E7">
-        <v>-3216749.301604709</v>
+        <v>-3.216749301604708</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-256209997.4367263</v>
+        <v>-256.2099974367263</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-93322914.23297073</v>
+        <v>-93.32291423297072</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1316312.356780149</v>
+        <v>-1.316312356780149</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8180227.029060655</v>
+        <v>-8.180227029060658</v>
       </c>
       <c r="E7">
-        <v>-3824631.860376054</v>
+        <v>-3.824631860376055</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-283182645.0051708</v>
+        <v>-283.182645005171</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106510498.647636</v>
+        <v>-106.5104986476361</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1193479.975177383</v>
+        <v>-1.193479975177382</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7825667.943380527</v>
+        <v>-7.825667943380522</v>
       </c>
       <c r="E7">
-        <v>-3467734.321775897</v>
+        <v>-3.467734321775894</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-310177974.1640495</v>
+        <v>-310.1779741640495</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-124629977.1854165</v>
+        <v>-124.6299771854165</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1116521.98785702</v>
+        <v>-1.11652198785702</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7301820.56818706</v>
+        <v>-7.30182056818705</v>
       </c>
       <c r="E7">
-        <v>-3244127.843647974</v>
+        <v>-3.244127843647974</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-349094604.0277992</v>
+        <v>-349.0946040277992</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-149453824.8722126</v>
+        <v>-149.4538248722126</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-14.4035530484843</v>
+        <v>-1.440355304848429E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-8.014184901632509</v>
+        <v>-8.014184901632505E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1077094.645136867</v>
+        <v>-1.077094645136867</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6966571.335493753</v>
+        <v>-6.966571335493749</v>
       </c>
       <c r="E7">
-        <v>-3129569.114209069</v>
+        <v>-3.12956911420907</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-405460198.4301691</v>
+        <v>-405.460198430169</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-182712498.167766</v>
+        <v>-182.7124981677659</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-956380.3299401572</v>
+        <v>-0.9563803299401582</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7712706.365008076</v>
+        <v>-7.712706365008071</v>
       </c>
       <c r="E7">
-        <v>-2778825.756428736</v>
+        <v>-2.778825756428739</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-485541061.118953</v>
+        <v>-485.5410611189531</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-225857541.5449944</v>
+        <v>-225.8575415449945</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-823935.7121730619</v>
+        <v>-0.8239357121730623</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9722819.675235052</v>
+        <v>-9.72281967523505</v>
       </c>
       <c r="E7">
-        <v>-2393999.235399605</v>
+        <v>-2.393999235399605</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-594033928.6935606</v>
+        <v>-594.0339286935608</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-279821304.4701146</v>
+        <v>-279.8213044701147</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-754832.2570137855</v>
+        <v>-0.7548322570137853</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13812365.76444557</v>
+        <v>-13.81236576444556</v>
       </c>
       <c r="E7">
-        <v>-2193214.615470386</v>
+        <v>-2.193214615470385</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-739082373.7167542</v>
+        <v>-739.0823737167541</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-344802167.7492334</v>
+        <v>-344.8021677492334</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1043544.110449646</v>
+        <v>-1.043544110449646</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-20323490.49020906</v>
+        <v>-20.32349049020906</v>
       </c>
       <c r="E7">
-        <v>-3032085.835839428</v>
+        <v>-3.032085835839427</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-929058414.7353606</v>
+        <v>-929.0584147353605</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-420096863.9690658</v>
+        <v>-420.0968639690657</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1553592.586324467</v>
+        <v>-1.553592586324467</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-28593890.17732171</v>
+        <v>-28.59389017732172</v>
       </c>
       <c r="E7">
-        <v>-4514065.125267996</v>
+        <v>-4.514065125267996</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1152732750.26437</v>
+        <v>-1152.732750264369</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-503993812.0020198</v>
+        <v>-503.9938120020194</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2128804.253467147</v>
+        <v>-2.128804253467147</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-38637802.95968986</v>
+        <v>-38.63780295968986</v>
       </c>
       <c r="E7">
-        <v>-6185380.339534697</v>
+        <v>-6.185380339534697</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1401483435.220535</v>
+        <v>-1401.483435220535</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-593742165.2499908</v>
+        <v>-593.7421652499905</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3060512.914886662</v>
+        <v>-3.060512914886661</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-55214867.48847509</v>
+        <v>-55.21486748847506</v>
       </c>
       <c r="E7">
-        <v>-8892520.945408816</v>
+        <v>-8.892520945408815</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1710503326.122045</v>
+        <v>-1710.503326122044</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-685612791.0375267</v>
+        <v>-685.6127910375266</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4110372.188564164</v>
+        <v>-4.110372188564164</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-73637402.05915545</v>
+        <v>-73.63740205915545</v>
       </c>
       <c r="E7">
-        <v>-11942955.90207836</v>
+        <v>-11.94295590207836</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2031555735.501673</v>
+        <v>-2031.555735501673</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-775070127.6965953</v>
+        <v>-775.0701276965954</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4488760.961194688</v>
+        <v>-4.488760961194688</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80051869.4812583</v>
+        <v>-80.05186948125829</v>
       </c>
       <c r="E7">
-        <v>-13042389.29108893</v>
+        <v>-13.04238929108893</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2235046295.69057</v>
+        <v>-2235.046295690569</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-857069622.1064811</v>
+        <v>-857.0696221064808</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-102.4059082549475</v>
+        <v>-0.0001024059082549475</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-56.97898851847027</v>
+        <v>-5.697898851847025E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4485202.291621592</v>
+        <v>-4.485202291621591</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79727126.5795635</v>
+        <v>-79.72712657956349</v>
       </c>
       <c r="E7">
-        <v>-13032049.34331004</v>
+        <v>-13.03204934331004</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2357325966.469188</v>
+        <v>-2357.325966469188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-926476990.6661767</v>
+        <v>-926.4769906661768</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4419133.650204656</v>
+        <v>-4.419133650204656</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-78269210.52826057</v>
+        <v>-78.2692105282606</v>
       </c>
       <c r="E7">
-        <v>-12840082.57369536</v>
+        <v>-12.84008257369536</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2438686930.620778</v>
+        <v>-2438.686930620778</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-978574511.3879879</v>
+        <v>-978.5745113879879</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4282476.628328182</v>
+        <v>-4.282476628328182</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-75438601.75605787</v>
+        <v>-75.43860175605789</v>
       </c>
       <c r="E7">
-        <v>-12443016.63632821</v>
+        <v>-12.44301663632822</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2470393641.165859</v>
+        <v>-2470.39364116586</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1009586058.102951</v>
+        <v>-1009.586058102951</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4131377.54595991</v>
+        <v>-4.131377545959912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-72058025.0219903</v>
+        <v>-72.0580250219903</v>
       </c>
       <c r="E7">
-        <v>-12003988.34526751</v>
+        <v>-12.00398834526751</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2455549392.221611</v>
+        <v>-2455.549392221612</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1017130988.254443</v>
+        <v>-1017.130988254444</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4062902.595624943</v>
+        <v>-4.062902595624946</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-69761756.97813107</v>
+        <v>-69.76175697813107</v>
       </c>
       <c r="E7">
-        <v>-11805029.88731502</v>
+        <v>-11.80502988731503</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2407227290.109755</v>
+        <v>-2407.227290109756</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1000519249.469133</v>
+        <v>-1000.519249469133</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3912686.617019213</v>
+        <v>-3.912686617019213</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-65983581.02835017</v>
+        <v>-65.9835810283502</v>
       </c>
       <c r="E7">
-        <v>-11368567.51213958</v>
+        <v>-11.36856751213958</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2304601632.933054</v>
+        <v>-2304.601632933053</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-960829737.7898959</v>
+        <v>-960.8297377898956</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3387405.112493821</v>
+        <v>-3.387405112493819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-56367244.67159247</v>
+        <v>-56.36724467159248</v>
       </c>
       <c r="E7">
-        <v>-9842327.659170073</v>
+        <v>-9.842327659170067</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2113535941.567895</v>
+        <v>-2113.535941567896</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-900763287.5222806</v>
+        <v>-900.7632875222805</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2277192.301387544</v>
+        <v>-2.277192301387544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-37543650.62752465</v>
+        <v>-37.54365062752463</v>
       </c>
       <c r="E7">
-        <v>-6616531.542250443</v>
+        <v>-6.616531542250442</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1811463543.006354</v>
+        <v>-1811.463543006353</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-824313168.4825375</v>
+        <v>-824.3131684825371</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-985716.2369044855</v>
+        <v>-0.9857162369044851</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16436292.61689906</v>
+        <v>-16.43629261689905</v>
       </c>
       <c r="E7">
-        <v>-2864063.157605497</v>
+        <v>-2.864063157605496</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1467555680.368253</v>
+        <v>-1467.555680368254</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-736329382.3133736</v>
+        <v>-736.3293823133737</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-452939.1853372609</v>
+        <v>-0.4529391853372618</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8768326.886365985</v>
+        <v>-8.768326886365987</v>
       </c>
       <c r="E7">
-        <v>-1316044.501239151</v>
+        <v>-1.316044501239154</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1229090012.77146</v>
+        <v>-1229.09001277146</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-642055184.5791545</v>
+        <v>-642.0551845791545</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.314642025772212E-11</v>
+        <v>-4.31464202577221E-17</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8470,16 +8470,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.017697256591589E-08</v>
+        <v>-3.017697256591591E-14</v>
       </c>
       <c r="E7">
-        <v>-1.253647530761731E-10</v>
+        <v>-1.253647530761731E-16</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-428.9221044264933</v>
+        <v>-0.0004289221044264934</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-238.6536877339686</v>
+        <v>-0.0002386536877339686</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-389414.0778720443</v>
+        <v>-0.3894140778720441</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8240121.722056284</v>
+        <v>-8.240121722056294</v>
       </c>
       <c r="E7">
-        <v>-1131468.136295204</v>
+        <v>-1.131468136295204</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1052284625.742637</v>
+        <v>-1052.284625742637</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-546687324.9454429</v>
+        <v>-546.6873249454429</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-331501.9198330073</v>
+        <v>-0.3315019198330082</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7689414.133655227</v>
+        <v>-7.689414133655233</v>
       </c>
       <c r="E7">
-        <v>-963200.5639379629</v>
+        <v>-0.9632005639379656</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-882026793.9976764</v>
+        <v>-882.0267939976765</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-454978559.9268035</v>
+        <v>-454.9785599268034</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-219779.9991904739</v>
+        <v>-0.2197799991904752</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6428254.659948562</v>
+        <v>-6.428254659948561</v>
       </c>
       <c r="E7">
-        <v>-638585.198146631</v>
+        <v>-0.6385851981466346</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-718953063.5615469</v>
+        <v>-718.9530635615471</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-370885633.2974247</v>
+        <v>-370.8856332974249</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-147838.127211358</v>
+        <v>-0.1478381272113572</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5309599.987704949</v>
+        <v>-5.309599987704989</v>
       </c>
       <c r="E7">
-        <v>-429553.3720385229</v>
+        <v>-0.4295533720385204</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-576730941.984475</v>
+        <v>-576.7309419844752</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-297278191.5064013</v>
+        <v>-297.2781915064012</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-239922.856658282</v>
+        <v>-0.2399228566582788</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6362543.658573261</v>
+        <v>-6.362543658573278</v>
       </c>
       <c r="E7">
-        <v>-697111.5912429008</v>
+        <v>-0.6971115912428917</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-476089142.599871</v>
+        <v>-476.089142599871</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-235751540.7370514</v>
+        <v>-235.7515407370514</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-437705.4783294051</v>
+        <v>-0.4377054783294005</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8524970.486360516</v>
+        <v>-8.524970486360491</v>
       </c>
       <c r="E7">
-        <v>-1271781.96668664</v>
+        <v>-1.271781966686627</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-408369295.9144833</v>
+        <v>-408.3692959144834</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-186599848.1474812</v>
+        <v>-186.5998481474813</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-614192.0102052666</v>
+        <v>-0.6141920102052638</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10766869.98073236</v>
+        <v>-10.76686998073237</v>
       </c>
       <c r="E7">
-        <v>-1784575.156891746</v>
+        <v>-1.784575156891738</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-361447175.3302304</v>
+        <v>-361.4471753302305</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148983369.2212642</v>
+        <v>-148.9833692212643</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-740617.2413002345</v>
+        <v>-0.7406172413002339</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12961918.33249327</v>
+        <v>-12.96191833249327</v>
       </c>
       <c r="E7">
-        <v>-2151911.955266859</v>
+        <v>-2.151911955266857</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-330760547.8504243</v>
+        <v>-330.7605478504244</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121265757.0313768</v>
+        <v>-121.2657570313769</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-778083.0567250468</v>
+        <v>-0.7780830567250452</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13677583.50857223</v>
+        <v>-13.67758350857219</v>
       </c>
       <c r="E7">
-        <v>-2260771.338536053</v>
+        <v>-2.260771338536048</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-301267874.8975238</v>
+        <v>-301.2678748975238</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101436355.580976</v>
+        <v>-101.4363555809761</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-600145.7482279913</v>
+        <v>-0.6001457482279904</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10457568.10146882</v>
+        <v>-10.45756810146881</v>
       </c>
       <c r="E7">
-        <v>-1743762.821733786</v>
+        <v>-1.743762821733783</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-248349806.8192855</v>
+        <v>-248.3498068192856</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-87504600.61923431</v>
+        <v>-87.50460061923442</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.610359011398237E-09</v>
+        <v>-4.610359011398236E-15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9988,16 +9988,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.711827080343465E-06</v>
+        <v>-2.711827080343467E-12</v>
       </c>
       <c r="E7">
-        <v>-1.339570039887623E-08</v>
+        <v>-1.339570039887622E-14</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1407.342602595991</v>
+        <v>-0.00140734260259599</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-783.0501015413901</v>
+        <v>-0.0007830501015413899</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-274127.7351497989</v>
+        <v>-0.2741277351497983</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4663348.022526064</v>
+        <v>-4.663348022526079</v>
       </c>
       <c r="E7">
-        <v>-796496.10843983</v>
+        <v>-0.7964961084398283</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-180557734.9228617</v>
+        <v>-180.5577349228621</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-77776388.48923852</v>
+        <v>-77.77638848923868</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-60382.8618218565</v>
+        <v>-0.06038286182185534</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-948387.6804704624</v>
+        <v>-0.9483876804704866</v>
       </c>
       <c r="E7">
-        <v>-175446.3641969209</v>
+        <v>-0.1754463641969176</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-135974589.4583946</v>
+        <v>-135.9745894583949</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-70980507.04168496</v>
+        <v>-70.98050704168503</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4465.571970373121</v>
+        <v>-0.004465571970372592</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-46990.71022346417</v>
+        <v>-0.04699071022347449</v>
       </c>
       <c r="E7">
-        <v>-12975.01215780495</v>
+        <v>-0.01297501215780341</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-119557008.4319463</v>
+        <v>-119.5570084319465</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-66270362.82460655</v>
+        <v>-66.27036282460665</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-215.8285265853231</v>
+        <v>-0.0002158285265853012</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3491.815268173533</v>
+        <v>-0.003491815268173985</v>
       </c>
       <c r="E7">
-        <v>-627.1039354028616</v>
+        <v>-0.0006271039354027982</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-113533743.3692335</v>
+        <v>-113.5337433692336</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-63153423.45839095</v>
+        <v>-63.15342345839102</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-484.3834395569323</v>
+        <v>-0.0004843834395569342</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12262.44999872914</v>
+        <v>-0.01226244999872922</v>
       </c>
       <c r="E7">
-        <v>-1407.407843606077</v>
+        <v>-0.001407407843606082</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-110442751.3729351</v>
+        <v>-110.4427513729351</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-61394245.78050552</v>
+        <v>-61.39424578050554</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1867.658803232978</v>
+        <v>-0.001867658803232987</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-46314.24914610129</v>
+        <v>-0.04631424914610157</v>
       </c>
       <c r="E7">
-        <v>-5426.605111137543</v>
+        <v>-0.00542660511113757</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-109864769.3578358</v>
+        <v>-109.8647693578359</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-60915330.38889998</v>
+        <v>-60.91533038889997</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-6596.641725954703</v>
+        <v>-0.00659664172595474</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-160422.2640872451</v>
+        <v>-0.160422264087246</v>
       </c>
       <c r="E7">
-        <v>-19166.9750622772</v>
+        <v>-0.01916697506227731</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-112233121.2593738</v>
+        <v>-112.2331212593736</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-61704632.24645328</v>
+        <v>-61.7046322464532</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-21372.9895244039</v>
+        <v>-0.02137298952440403</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-509096.748844507</v>
+        <v>-0.5090967488445094</v>
       </c>
       <c r="E7">
-        <v>-62100.62244380474</v>
+        <v>-0.06210062244380513</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-118793850.5979806</v>
+        <v>-118.7938505979805</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-63735866.91154265</v>
+        <v>-63.73586691154255</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-62692.89884324499</v>
+        <v>-0.06269289884324544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1453050.655581841</v>
+        <v>-1.453050655581847</v>
       </c>
       <c r="E7">
-        <v>-182158.3282266913</v>
+        <v>-0.1821583282266926</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-132411304.9842581</v>
+        <v>-132.4113049842579</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-66911385.37609636</v>
+        <v>-66.91138537609622</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-159690.1493499336</v>
+        <v>-0.159690149349935</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3541046.445116159</v>
+        <v>-3.541046445116168</v>
       </c>
       <c r="E7">
-        <v>-463990.1994735856</v>
+        <v>-0.4639901994735894</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-157460160.8106031</v>
+        <v>-157.460160810603</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-71037720.09452279</v>
+        <v>-71.03772009452267</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.194577315983031E-07</v>
+        <v>-2.19457731598303E-13</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11506,16 +11506,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0001073768475646465</v>
+        <v>-1.073768475646466E-10</v>
       </c>
       <c r="E7">
-        <v>-6.376488285271903E-07</v>
+        <v>-6.376488285271901E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3996.14746892146</v>
+        <v>-0.003996147468921461</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2223.469324601207</v>
+        <v>-0.002223469324601207</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-325489.0615000552</v>
+        <v>-0.3254890615000584</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6727928.931816573</v>
+        <v>-6.727928931816574</v>
       </c>
       <c r="E7">
-        <v>-945729.809801468</v>
+        <v>-0.9457298098014771</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-193429155.7372572</v>
+        <v>-193.429155737257</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-75837460.33471355</v>
+        <v>-75.8374603347134</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-482157.9337042074</v>
+        <v>-0.4821579337042104</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9280976.282884071</v>
+        <v>-9.280976282884048</v>
       </c>
       <c r="E7">
-        <v>-1400941.490429384</v>
+        <v>-1.400941490429393</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-225173447.4943294</v>
+        <v>-225.1734474943291</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-80991045.917454</v>
+        <v>-80.99104591745389</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-521277.2074107153</v>
+        <v>-0.5212772074107147</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9730220.111675367</v>
+        <v>-9.730220111675349</v>
       </c>
       <c r="E7">
-        <v>-1514605.105149724</v>
+        <v>-1.514605105149722</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-238758452.8743028</v>
+        <v>-238.7584528743025</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-86192998.0331482</v>
+        <v>-86.19299803314809</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-524671.1223149033</v>
+        <v>-0.524671122314902</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9536240.571555065</v>
+        <v>-9.536240571555066</v>
       </c>
       <c r="E7">
-        <v>-1524466.347435495</v>
+        <v>-1.524466347435491</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-246425162.0089229</v>
+        <v>-246.4251620089229</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91203079.85172422</v>
+        <v>-91.2030798517242</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-583683.7866529865</v>
+        <v>-0.5836837866529846</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10129324.52880532</v>
+        <v>-10.12932452880529</v>
       </c>
       <c r="E7">
-        <v>-1695931.51300243</v>
+        <v>-1.695931513002424</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-260593013.038035</v>
+        <v>-260.5930130380346</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95875441.62888739</v>
+        <v>-95.87544162888734</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-660549.7360424913</v>
+        <v>-0.6605497360424893</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11071978.89949211</v>
+        <v>-11.07197889949209</v>
       </c>
       <c r="E7">
-        <v>-1919270.568887518</v>
+        <v>-1.919270568887512</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-277050328.8352615</v>
+        <v>-277.0503288352614</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-100157381.9207492</v>
+        <v>-100.1573819207492</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-680751.8994915681</v>
+        <v>-0.6807518994915699</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11351339.20499629</v>
+        <v>-11.35133920499633</v>
       </c>
       <c r="E7">
-        <v>-1977969.279400929</v>
+        <v>-1.977969279400934</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-286600596.8970765</v>
+        <v>-286.6005968970771</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104061193.5504255</v>
+        <v>-104.0611935504256</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-622832.7061597198</v>
+        <v>-0.6228327061597239</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10640364.09636895</v>
+        <v>-10.640364096369</v>
       </c>
       <c r="E7">
-        <v>-1809681.265539136</v>
+        <v>-1.809681265539147</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-286394420.7619634</v>
+        <v>-286.3944207619641</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-107622562.0665953</v>
+        <v>-107.6225620665954</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-515552.952357724</v>
+        <v>-0.5155529523577254</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9083657.051081095</v>
+        <v>-9.083657051081074</v>
       </c>
       <c r="E7">
-        <v>-1497972.906766247</v>
+        <v>-1.497972906766252</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-278225346.8379189</v>
+        <v>-278.2253468379191</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-110862938.753586</v>
+        <v>-110.8629387535862</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-393551.8238024974</v>
+        <v>-0.3935518238024951</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7033229.545919304</v>
+        <v>-7.033229545919271</v>
       </c>
       <c r="E7">
-        <v>-1143490.628399177</v>
+        <v>-1.143490628399171</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-265485753.8721311</v>
+        <v>-265.4857538721313</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113769436.9965484</v>
+        <v>-113.7694369965486</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-6.061718312848707E-06</v>
+        <v>-6.061718312848707E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13024,16 +13024,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.002412169909915786</v>
+        <v>-2.412169909915788E-09</v>
       </c>
       <c r="E7">
-        <v>-1.761272001172768E-05</v>
+        <v>-1.761272001172768E-11</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-10074.61392654264</v>
+        <v>-0.01007461392654264</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5605.538846449458</v>
+        <v>-0.005605538846449458</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-290575.0898826746</v>
+        <v>-0.2905750898826719</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5212338.648334024</v>
+        <v>-5.212338648334024</v>
       </c>
       <c r="E7">
-        <v>-844284.9760336408</v>
+        <v>-0.844284976033633</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-254205001.0116772</v>
+        <v>-254.2050010116774</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116296439.6376413</v>
+        <v>-116.2964396376415</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-267766.2269071493</v>
+        <v>-0.2677662269071503</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4835462.094141526</v>
+        <v>-4.835462094141565</v>
       </c>
       <c r="E7">
-        <v>-778012.3291304894</v>
+        <v>-0.7780123291304922</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-254644947.0517413</v>
+        <v>-254.6449470517421</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118383501.6280602</v>
+        <v>-118.3835016280604</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-326346.5229596046</v>
+        <v>-0.3263465229596071</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5901672.301488359</v>
+        <v>-5.901672301488356</v>
       </c>
       <c r="E7">
-        <v>-948221.2202940804</v>
+        <v>-0.9482212202940876</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-266734859.3853502</v>
+        <v>-266.7348593853505</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119978588.1963745</v>
+        <v>-119.9785881963747</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-390647.6201618225</v>
+        <v>-0.3906476201618235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7035115.908447035</v>
+        <v>-7.035115908446989</v>
       </c>
       <c r="E7">
-        <v>-1135052.274298852</v>
+        <v>-1.135052274298855</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-278525421.2120491</v>
+        <v>-278.5254212120491</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121056202.4899355</v>
+        <v>-121.0562024899357</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-422632.7256320547</v>
+        <v>-0.4226327256320536</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7579970.092431936</v>
+        <v>-7.579970092431889</v>
       </c>
       <c r="E7">
-        <v>-1227987.095436727</v>
+        <v>-1.227987095436724</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-284310028.8258598</v>
+        <v>-284.3100288258595</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121624721.5229411</v>
+        <v>-121.6247215229412</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-431117.0813903136</v>
+        <v>-0.4311170813903125</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7725163.308517613</v>
+        <v>-7.725163308517668</v>
       </c>
       <c r="E7">
-        <v>-1252638.947393187</v>
+        <v>-1.252638947393183</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285754767.8408359</v>
+        <v>-285.7547678408362</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121722916.2914694</v>
+        <v>-121.7229162914694</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-432339.5834016962</v>
+        <v>-0.4323395834016955</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7768213.576437692</v>
+        <v>-7.768213576437783</v>
       </c>
       <c r="E7">
-        <v>-1256191.007144069</v>
+        <v>-1.256191007144067</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285536406.6154588</v>
+        <v>-285.5364066154593</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121409612.9126886</v>
+        <v>-121.4096129126885</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-434223.617619</v>
+        <v>-0.4342236176190007</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7847500.244344188</v>
+        <v>-7.847500244344213</v>
       </c>
       <c r="E7">
-        <v>-1261665.192094489</v>
+        <v>-1.261665192094492</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-284979317.7838854</v>
+        <v>-284.9793177838857</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-120751344.1537446</v>
+        <v>-120.7513441537446</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-445250.0998525696</v>
+        <v>-0.4452500998525718</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8106966.438235101</v>
+        <v>-8.106966438235057</v>
       </c>
       <c r="E7">
-        <v>-1293703.359206693</v>
+        <v>-1.293703359206699</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285456781.4405854</v>
+        <v>-285.456781440585</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119811682.470648</v>
+        <v>-119.8116824706479</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-474388.8097115101</v>
+        <v>-0.4743888097115119</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8670883.541019889</v>
+        <v>-8.670883541019863</v>
       </c>
       <c r="E7">
-        <v>-1378367.791263963</v>
+        <v>-1.378367791263968</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-288191626.1110472</v>
+        <v>-288.1916261110468</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118644019.4497128</v>
+        <v>-118.6440194497127</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.02291287329958029</v>
+        <v>-0.02291292986292546</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.01274865183896931</v>
+        <v>-0.01274868331100299</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5056949659530123</v>
+        <v>-2.743776986078198</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.182588719506029</v>
+        <v>-38.63571750500598</v>
       </c>
       <c r="E7">
-        <v>-1.469329880900533</v>
+        <v>-7.972223936566728</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-290.2582975629357</v>
+        <v>-2246.603750080127</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-117.2880231056295</v>
+        <v>-1055.69172342925</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5083280924459074</v>
+        <v>-2.502573255024723</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.059698116002256</v>
+        <v>-36.16651370036188</v>
       </c>
       <c r="E7">
-        <v>-1.476980602574042</v>
+        <v>-7.271390680784431</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-286.6932858718668</v>
+        <v>-2220.99749012478</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-115.7694614590414</v>
+        <v>-1054.750983105876</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.04823430674689904</v>
+        <v>-0.04823454013856723</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.02683613604016033</v>
+        <v>-0.02683626590006205</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0963222143640431</v>
+        <v>-0.09632304296192488</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.05358058168093058</v>
+        <v>-0.05358104271555248</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.1853220771402827</v>
+        <v>-0.1853246909012568</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1030215254322926</v>
+        <v>-0.1030229797376063</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.3470574497445057</v>
+        <v>-0.3470649344340809</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1925670954067092</v>
+        <v>-0.1925712599129241</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0006525312715924498</v>
+        <v>-0.0006525312715924499</v>
       </c>
       <c r="E7">
         <v>-1.173853942576255E-05</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.6346683241552197</v>
+        <v>-0.6346880929899864</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.3504195283467254</v>
+        <v>-0.3504305277922493</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.131346683735631</v>
+        <v>-1.131395462783939</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.6173353977269576</v>
+        <v>-0.6173625385519437</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-8.576326271539185E-05</v>
+        <v>-8.576326271539187E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.969408793835186</v>
+        <v>-1.969522431927353</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.046737640590358</v>
+        <v>-1.046800869203425</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0003369703820102284</v>
+        <v>-0.0003369703820102286</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0432166495759916</v>
+        <v>-0.04321664957599165</v>
       </c>
       <c r="E7">
-        <v>-0.0009790895393491045</v>
+        <v>-0.0009790895393491051</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.38681348497012</v>
+        <v>-3.387065626778539</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.703882655556174</v>
+        <v>-1.704022948098388</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.00120884337372491</v>
+        <v>-0.001208843373724912</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.1457389119443938</v>
+        <v>-0.1457389119443946</v>
       </c>
       <c r="E7">
-        <v>-0.003512373683600517</v>
+        <v>-0.003512373683600523</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-5.884353899284202</v>
+        <v>-5.884890465190538</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.664225571147704</v>
+        <v>-2.664524118205557</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.003975403855560209</v>
+        <v>-0.003975403855560241</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.4489873841394241</v>
+        <v>-0.4489873841394333</v>
       </c>
       <c r="E7">
-        <v>-0.01155079656095399</v>
+        <v>-0.01155079656095408</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-10.59089613778013</v>
+        <v>-10.59199701589355</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-4.010624213820768</v>
+        <v>-4.011236746070614</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01188044681738436</v>
+        <v>-0.01188044681738473</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.229555514757405</v>
+        <v>-1.229555514757502</v>
       </c>
       <c r="E7">
-        <v>-0.03451941720308615</v>
+        <v>-0.03451941720308721</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-19.76417253546776</v>
+        <v>-19.76635828138994</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5.829080046071781</v>
+        <v>-5.830296202384297</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.03112814700231029</v>
+        <v>-0.03112814700231392</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.784293602599982</v>
+        <v>-2.784293602600878</v>
       </c>
       <c r="E7">
-        <v>-0.09044487212041702</v>
+        <v>-0.09044487212042759</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-35.87694913971998</v>
+        <v>-35.88115906494655</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-8.202847918634115</v>
+        <v>-8.205190335051856</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06558565671037439</v>
+        <v>-0.06558565671040663</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.618883221809465</v>
+        <v>-4.618883221816827</v>
       </c>
       <c r="E7">
-        <v>-0.1905634258815061</v>
+        <v>-0.1905634258815998</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-55.53523909534606</v>
+        <v>-55.54311800619106</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-11.20463270420392</v>
+        <v>-11.20901655641626</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.095258893558827</v>
+        <v>-0.09525889355908325</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.442274428544088</v>
+        <v>-5.442274428598672</v>
       </c>
       <c r="E7">
-        <v>-0.2767809611545808</v>
+        <v>-0.2767809611553254</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68.89815466824311</v>
+        <v>-68.91249854527317</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-14.88648548643229</v>
+        <v>-14.89446646717268</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08155952727720199</v>
+        <v>-0.0815595272790469</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.691255431800586</v>
+        <v>-5.691255432168924</v>
       </c>
       <c r="E7">
-        <v>-0.2369765541855323</v>
+        <v>-0.2369765541908928</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-78.26330730023905</v>
+        <v>-78.28873287990913</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-19.26784547181483</v>
+        <v>-19.28199234752361</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.04794511830018818</v>
+        <v>-0.04794511831232202</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.208771772778681</v>
+        <v>-6.208771775059827</v>
       </c>
       <c r="E7">
-        <v>-0.1393076848787994</v>
+        <v>-0.1393076849140551</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-90.32578994325449</v>
+        <v>-90.36970849916152</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-24.32468222371085</v>
+        <v>-24.34911864507817</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05431284135099596</v>
+        <v>-0.05431284142445152</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.790221603448951</v>
+        <v>-6.790221616508476</v>
       </c>
       <c r="E7">
-        <v>-0.1578095217207353</v>
+        <v>-0.1578095219341653</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-104.9067034294088</v>
+        <v>-104.9806934680428</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-29.98364147364513</v>
+        <v>-30.02480972346084</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09217822460516628</v>
+        <v>-0.09217822501718283</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.467577784341156</v>
+        <v>-7.467577853884029</v>
       </c>
       <c r="E7">
-        <v>-0.2678298755169262</v>
+        <v>-0.2678298767140673</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-121.8101686442548</v>
+        <v>-121.9318534572011</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-36.11984504803363</v>
+        <v>-36.18755059456681</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1335603946192781</v>
+        <v>-0.1335603967727228</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.048863442921839</v>
+        <v>-8.048863789166941</v>
       </c>
       <c r="E7">
-        <v>-0.3880684838322208</v>
+        <v>-0.3880684900891955</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-138.6520943048604</v>
+        <v>-138.8476355106891</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-42.56569157981205</v>
+        <v>-42.67448991899057</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1891015856946997</v>
+        <v>-0.1891015962324387</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.577634052754032</v>
+        <v>-8.57763567132818</v>
       </c>
       <c r="E7">
-        <v>-0.5494470562175069</v>
+        <v>-0.5494470868355985</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-155.6854841210941</v>
+        <v>-155.9927988321811</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-49.14115920943883</v>
+        <v>-49.31214340444917</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2457126484891216</v>
+        <v>-0.2457126969504794</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.025773943933304</v>
+        <v>-9.025781069820612</v>
       </c>
       <c r="E7">
-        <v>-0.7139342110315203</v>
+        <v>-0.7139343518391732</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-172.1226570014811</v>
+        <v>-172.5954541681019</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-55.69886284436034</v>
+        <v>-55.96189908795729</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2745504988808392</v>
+        <v>-0.2745507088987235</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.732517726527471</v>
+        <v>-8.732547330525348</v>
       </c>
       <c r="E7">
-        <v>-0.7977244761800704</v>
+        <v>-0.7977250864008036</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-182.3260777917133</v>
+        <v>-183.0387992637366</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-62.18185508153721</v>
+        <v>-62.57829228307781</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3409751405323132</v>
+        <v>-0.3409759995981202</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.604442791108069</v>
+        <v>-8.604558946964408</v>
       </c>
       <c r="E7">
-        <v>-0.9907256278183675</v>
+        <v>-0.9907281238903969</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-194.6997100857372</v>
+        <v>-195.75349758068</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-68.69313850265449</v>
+        <v>-69.27898472487304</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5475372355426066</v>
+        <v>-0.5475405540363394</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.559261290741478</v>
+        <v>-8.559691691124977</v>
       </c>
       <c r="E7">
-        <v>-1.590905338700125</v>
+        <v>-1.590914980801251</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-211.7314235576912</v>
+        <v>-213.2614483991063</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-75.57025108836217</v>
+        <v>-76.41976437389944</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8266061098216693</v>
+        <v>-0.8266182110913102</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.411069619845048</v>
+        <v>-8.412574388263666</v>
       </c>
       <c r="E7">
-        <v>-2.401758250859825</v>
+        <v>-2.401793411892221</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-231.5712054863569</v>
+        <v>-233.7564497692775</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83.45229657875046</v>
+        <v>-84.66188215504853</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.10709919514969</v>
+        <v>-1.107140804350395</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.425524906888</v>
+        <v>-8.43048128430428</v>
       </c>
       <c r="E7">
-        <v>-3.216749301604708</v>
+        <v>-3.216870199865584</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-256.2099974367263</v>
+        <v>-259.2886840262751</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-93.32291423297072</v>
+        <v>-95.01515889636512</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.316312356780149</v>
+        <v>-1.316447003850656</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.180227029060658</v>
+        <v>-8.195571811620358</v>
       </c>
       <c r="E7">
-        <v>-3.824631860376055</v>
+        <v>-3.825023086267931</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-283.182645005171</v>
+        <v>-287.4815509588233</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-106.5104986476361</v>
+        <v>-108.8381142814935</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.193479975177382</v>
+        <v>-1.19388891104551</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.825667943380522</v>
+        <v>-7.870169914452549</v>
       </c>
       <c r="E7">
-        <v>-3.467734321775894</v>
+        <v>-3.46892251175378</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-310.1779741640495</v>
+        <v>-316.1739112489536</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-124.6299771854165</v>
+        <v>-127.7793803717598</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.11652198785702</v>
+        <v>-1.117682857316783</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.30182056818705</v>
+        <v>-7.422088377800335</v>
       </c>
       <c r="E7">
-        <v>-3.244127843647974</v>
+        <v>-3.247500825979011</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-349.0946040277992</v>
+        <v>-357.5411791500881</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-149.4538248722126</v>
+        <v>-153.6480629791842</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.077094645136867</v>
+        <v>-1.080155427883927</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.966571335493749</v>
+        <v>-7.266989680097434</v>
       </c>
       <c r="E7">
-        <v>-3.12956911420907</v>
+        <v>-3.138462419169551</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-405.460198430169</v>
+        <v>-417.6196108547114</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-182.7124981677659</v>
+        <v>-188.2132604248947</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9563803299401582</v>
+        <v>-0.9638014849273888</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.712706365008071</v>
+        <v>-8.397648146478314</v>
       </c>
       <c r="E7">
-        <v>-2.778825756428739</v>
+        <v>-2.800388408833202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-485.5410611189531</v>
+        <v>-503.5102973633695</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-225.8575415449945</v>
+        <v>-232.966082178765</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8239357121730623</v>
+        <v>-0.840225706590881</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.72281967523505</v>
+        <v>-11.12228380158951</v>
       </c>
       <c r="E7">
-        <v>-2.393999235399605</v>
+        <v>-2.441330882280243</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-594.0339286935608</v>
+        <v>-620.949921374611</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-279.8213044701147</v>
+        <v>-288.8782660023626</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7548322570137853</v>
+        <v>-0.7864497667409757</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.81236576444556</v>
+        <v>-16.31429346731616</v>
       </c>
       <c r="E7">
-        <v>-2.193214615470385</v>
+        <v>-2.285081363074395</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-739.0823737167541</v>
+        <v>-778.622314732261</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-344.8021677492334</v>
+        <v>-356.1865307701376</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.043544110449646</v>
+        <v>-1.096031172317801</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-20.32349049020906</v>
+        <v>-24.14558157333265</v>
       </c>
       <c r="E7">
-        <v>-3.032085835839427</v>
+        <v>-3.18459043556036</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-929.0584147353605</v>
+        <v>-983.6975727525605</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-420.0968639690657</v>
+        <v>-434.2245589467285</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.553592586324467</v>
+        <v>-1.625186486235695</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-28.59389017732172</v>
+        <v>-33.55229742931274</v>
       </c>
       <c r="E7">
-        <v>-4.514065125267996</v>
+        <v>-4.72208589571708</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1152.732750264369</v>
+        <v>-1221.895162903505</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-503.9938120020194</v>
+        <v>-521.3168893717529</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.128804253467147</v>
+        <v>-2.206846330574465</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-38.63780295968986</v>
+        <v>-44.30594874709769</v>
       </c>
       <c r="E7">
-        <v>-6.185380339534697</v>
+        <v>-6.412136711620039</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1401.483435220535</v>
+        <v>-1482.619244439685</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-593.7421652499905</v>
+        <v>-614.749797655222</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.060512914886661</v>
+        <v>-3.132201848347819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-55.21486748847506</v>
+        <v>-61.37398539927423</v>
       </c>
       <c r="E7">
-        <v>-8.892520945408815</v>
+        <v>-9.100817842068365</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1710.503326122044</v>
+        <v>-1802.655076938122</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-685.6127910375266</v>
+        <v>-710.8357267419955</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.110372188564164</v>
+        <v>-4.181093586370382</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-73.63740205915545</v>
+        <v>-80.3287401965665</v>
       </c>
       <c r="E7">
-        <v>-11.94295590207836</v>
+        <v>-12.14844156045326</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2031.555735501673</v>
+        <v>-2136.20196200553</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-775.0701276965954</v>
+        <v>-805.0904638883552</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.488760961194688</v>
+        <v>-4.580077692092379</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-80.05186948125829</v>
+        <v>-87.33104908992941</v>
       </c>
       <c r="E7">
-        <v>-13.04238929108893</v>
+        <v>-13.30771604015252</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2235.046295690569</v>
+        <v>-2354.285436814037</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-857.0696221064808</v>
+        <v>-892.5378478289855</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0001024059082549475</v>
+        <v>-0.0001024059083886672</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5.697898851847025E-05</v>
+        <v>-5.697898859287235E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.485202291621591</v>
+        <v>-4.615569558387089</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79.72712657956349</v>
+        <v>-87.57966773367254</v>
       </c>
       <c r="E7">
-        <v>-13.03204934331004</v>
+        <v>-13.41083998479663</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2357.325966469188</v>
+        <v>-2492.837894460859</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-926.4769906661768</v>
+        <v>-968.1380837348303</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.419133650204656</v>
+        <v>-4.598190356464762</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-78.2692105282606</v>
+        <v>-86.6061230783051</v>
       </c>
       <c r="E7">
-        <v>-12.84008257369536</v>
+        <v>-13.36034357409466</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2438.686930620778</v>
+        <v>-2591.627937598998</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-978.5745113879879</v>
+        <v>-1027.304388813383</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.282476628328182</v>
+        <v>-4.51710011110387</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-75.43860175605789</v>
+        <v>-84.10497116700674</v>
       </c>
       <c r="E7">
-        <v>-12.44301663632822</v>
+        <v>-13.12473054928677</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2470.39364116586</v>
+        <v>-2641.690827124221</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1009.586058102951</v>
+        <v>-1066.438819610143</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.131377545959912</v>
+        <v>-4.430687717947811</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-72.0580250219903</v>
+        <v>-80.82727054930059</v>
       </c>
       <c r="E7">
-        <v>-12.00398834526751</v>
+        <v>-12.87365367509831</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2455.549392221612</v>
+        <v>-2646.082662780317</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1017.130988254444</v>
+        <v>-1083.396135204281</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.062902595624946</v>
+        <v>-4.453848412558097</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-69.76175697813107</v>
+        <v>-78.43418688463336</v>
       </c>
       <c r="E7">
-        <v>-11.80502988731503</v>
+        <v>-12.94094859188509</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2407.227290109756</v>
+        <v>-2619.044604425072</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1000.519249469133</v>
+        <v>-1077.78643513339</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.912686617019213</v>
+        <v>-4.454173596469426</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-65.9835810283502</v>
+        <v>-74.54003888727831</v>
       </c>
       <c r="E7">
-        <v>-11.36856751213958</v>
+        <v>-12.94189343506106</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2304.601632933053</v>
+        <v>-2542.507892632745</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-960.8297377898956</v>
+        <v>-1051.056699188257</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.387405112493819</v>
+        <v>-4.141880960358228</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-56.36724467159248</v>
+        <v>-64.83317699490604</v>
       </c>
       <c r="E7">
-        <v>-9.842327659170067</v>
+        <v>-12.03450670448796</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2113.535941567896</v>
+        <v>-2383.526062526568</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-900.7632875222805</v>
+        <v>-1006.340501912406</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.277192301387544</v>
+        <v>-3.256568593234194</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-37.54365062752463</v>
+        <v>-45.91104515267254</v>
       </c>
       <c r="E7">
-        <v>-6.616531542250442</v>
+        <v>-9.462173573793928</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1811.463543006353</v>
+        <v>-2118.936319246938</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-824.3131684825371</v>
+        <v>-948.1166676102937</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9857162369044851</v>
+        <v>-2.130722546867478</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-16.43629261689905</v>
+        <v>-24.68574539473633</v>
       </c>
       <c r="E7">
-        <v>-2.864063157605496</v>
+        <v>-6.190954066787703</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1467.555680368254</v>
+        <v>-1817.031384456515</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-736.3293823133737</v>
+        <v>-881.7519513766553</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4529391853372618</v>
+        <v>-1.648279609221145</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.768326886365987</v>
+        <v>-16.8783035204189</v>
       </c>
       <c r="E7">
-        <v>-1.316044501239154</v>
+        <v>-4.789184478717381</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1229.09001277146</v>
+        <v>-1624.644721066675</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-642.0551845791545</v>
+        <v>-813.0060708622927</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0004289221044264934</v>
+        <v>-0.0004289221120385086</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0002386536877339686</v>
+        <v>-0.0002386536919693192</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3894140778720441</v>
+        <v>-1.529159420156148</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.240121722056294</v>
+        <v>-16.33971963399397</v>
       </c>
       <c r="E7">
-        <v>-1.131468136295204</v>
+        <v>-4.443072958936138</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1052.284625742637</v>
+        <v>-1500.177285620872</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-546.6873249454429</v>
+        <v>-747.5506298748712</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3315019198330082</v>
+        <v>-1.388331410201615</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.689414133655233</v>
+        <v>-16.24506213493519</v>
       </c>
       <c r="E7">
-        <v>-0.9632005639379656</v>
+        <v>-4.033887942225533</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-882.0267939976765</v>
+        <v>-1393.57875362822</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-454.9785599268034</v>
+        <v>-690.5220116416202</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2197799991904752</v>
+        <v>-1.192076406608417</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.428254659948561</v>
+        <v>-16.43515095183785</v>
       </c>
       <c r="E7">
-        <v>-0.6385851981466346</v>
+        <v>-3.463656161269816</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-718.9530635615471</v>
+        <v>-1310.405702434193</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-370.8856332974249</v>
+        <v>-646.1145787900543</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1478381272113572</v>
+        <v>-1.060050468444204</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.309599987704989</v>
+        <v>-18.31377013024796</v>
       </c>
       <c r="E7">
-        <v>-0.4295533720385204</v>
+        <v>-3.080046141278772</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-576.7309419844752</v>
+        <v>-1269.053882414821</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-297.2781915064012</v>
+        <v>-617.2341606080673</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2399228566582788</v>
+        <v>-1.204120921214544</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.362543658573278</v>
+        <v>-24.26637572725371</v>
       </c>
       <c r="E7">
-        <v>-0.6971115912428917</v>
+        <v>-3.498652288190663</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-476.089142599871</v>
+        <v>-1294.594835743965</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-235.7515407370514</v>
+        <v>-605.2603681140779</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4377054783294005</v>
+        <v>-1.624788092298421</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.524970486360491</v>
+        <v>-33.38835111939735</v>
       </c>
       <c r="E7">
-        <v>-1.271781966686627</v>
+        <v>-4.720928336010504</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-408.3692959144834</v>
+        <v>-1380.037027481941</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-186.5998481474813</v>
+        <v>-609.9806318412861</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6141920102052638</v>
+        <v>-2.225128553026395</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.76686998073237</v>
+        <v>-44.60015115173505</v>
       </c>
       <c r="E7">
-        <v>-1.784575156891738</v>
+        <v>-6.465256907679866</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-361.4471753302305</v>
+        <v>-1512.149289119235</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-148.9833692212643</v>
+        <v>-629.7358462677689</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7406172413002339</v>
+        <v>-2.946052553088881</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.96191833249327</v>
+        <v>-57.77731024120038</v>
       </c>
       <c r="E7">
-        <v>-2.151911955266857</v>
+        <v>-8.559948859287257</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-330.7605478504244</v>
+        <v>-1683.616880144365</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121.2657570313769</v>
+        <v>-661.7592120443453</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7780830567250452</v>
+        <v>-3.703622888073617</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.67758350857219</v>
+        <v>-71.53138080896561</v>
       </c>
       <c r="E7">
-        <v>-2.260771338536048</v>
+        <v>-10.76111913983208</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-301.2678748975238</v>
+        <v>-1876.090780042875</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.4363555809761</v>
+        <v>-702.6271309181009</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6001457482279904</v>
+        <v>-4.289608303737608</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.45756810146881</v>
+        <v>-81.96267350041676</v>
       </c>
       <c r="E7">
-        <v>-1.743762821733783</v>
+        <v>-12.46373818683882</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-248.3498068192856</v>
+        <v>-2049.461424271832</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-87.50460061923442</v>
+        <v>-748.71089811764</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.00140734260259599</v>
+        <v>-0.001407342762339508</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0007830501015413899</v>
+        <v>-0.0007830501904232148</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2741277351497983</v>
+        <v>-4.55447787645469</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.663348022526079</v>
+        <v>-86.33942152227259</v>
       </c>
       <c r="E7">
-        <v>-0.7964961084398283</v>
+        <v>-13.23333409729272</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-180.5577349228621</v>
+        <v>-2173.870107550686</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-77.77638848923868</v>
+        <v>-796.5377727998045</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06038286182185534</v>
+        <v>-4.595972989593558</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.9483876804704866</v>
+        <v>-86.38438136345967</v>
       </c>
       <c r="E7">
-        <v>-0.1754463641969176</v>
+        <v>-13.35390086926243</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-135.9745894583949</v>
+        <v>-2258.75372833537</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-70.98050704168503</v>
+        <v>-843.0250492193406</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.004465571970372592</v>
+        <v>-4.556480318632771</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.04699071022347449</v>
+        <v>-84.55116691543373</v>
       </c>
       <c r="E7">
-        <v>-0.01297501215780341</v>
+        <v>-13.23915232433694</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-119.5570084319465</v>
+        <v>-2320.90525769213</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-66.27036282460665</v>
+        <v>-885.6047679855938</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0002158285265853012</v>
+        <v>-4.492099554324791</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.003491815268173985</v>
+        <v>-81.68147715891347</v>
       </c>
       <c r="E7">
-        <v>-0.0006271039354027982</v>
+        <v>-13.05208979233277</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-113.5337433692336</v>
+        <v>-2364.25760989306</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-63.15342345839102</v>
+        <v>-922.2812408469036</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0004843834395569342</v>
+        <v>-4.419428154536492</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.01226244999872922</v>
+        <v>-77.92321554845486</v>
       </c>
       <c r="E7">
-        <v>-0.001407407843606082</v>
+        <v>-12.84093827534152</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-110.4427513729351</v>
+        <v>-2387.78060868453</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-61.39424578050554</v>
+        <v>-951.6552501090207</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.001867658803232987</v>
+        <v>-4.30167878803501</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.04631424914610157</v>
+        <v>-72.67120404598552</v>
       </c>
       <c r="E7">
-        <v>-0.00542660511113757</v>
+        <v>-12.49880977040044</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-109.8647693578359</v>
+        <v>-2384.715497583205</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-60.91533038889997</v>
+        <v>-972.9266510939869</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.00659664172595474</v>
+        <v>-4.032814606714916</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.160422264087246</v>
+        <v>-64.47565095713378</v>
       </c>
       <c r="E7">
-        <v>-0.01916697506227731</v>
+        <v>-11.71760726273264</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-112.2331212593736</v>
+        <v>-2341.481827663977</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-61.7046322464532</v>
+        <v>-985.8727248992703</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02137298952440403</v>
+        <v>-3.550372807834933</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.5090967488445094</v>
+        <v>-53.00106709701194</v>
       </c>
       <c r="E7">
-        <v>-0.06210062244380513</v>
+        <v>-10.31584098342262</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-118.7938505979805</v>
+        <v>-2254.661337709254</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-63.73586691154255</v>
+        <v>-990.7995860966377</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06269289884324544</v>
+        <v>-2.973595687308161</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.453050655581847</v>
+        <v>-41.11229270427255</v>
       </c>
       <c r="E7">
-        <v>-0.1821583282266926</v>
+        <v>-8.639977241705051</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-132.4113049842579</v>
+        <v>-2149.485735557058</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-66.91138537609622</v>
+        <v>-988.4716587625749</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.159690149349935</v>
+        <v>-2.512937463795716</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.541046445116168</v>
+        <v>-32.85698137024478</v>
       </c>
       <c r="E7">
-        <v>-0.4639901994735894</v>
+        <v>-7.301504568927284</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-157.460160810603</v>
+        <v>-2062.729727951752</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-71.03772009452267</v>
+        <v>-980.0295447486886</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.003996147468921461</v>
+        <v>-0.003996149131444421</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.002223469324601207</v>
+        <v>-0.00222347024963452</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3254890615000584</v>
+        <v>-2.210274964320781</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.727928931816574</v>
+        <v>-28.75007368317737</v>
       </c>
       <c r="E7">
-        <v>-0.9457298098014771</v>
+        <v>-6.422098831778051</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-193.429155737257</v>
+        <v>-2001.750383502959</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-75.8374603347134</v>
+        <v>-966.9052265718884</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4821579337042104</v>
+        <v>-2.026304881489037</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.280976282884048</v>
+        <v>-27.70979108901164</v>
       </c>
       <c r="E7">
-        <v>-1.400941490429393</v>
+        <v>-5.887561693590396</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-225.1734474943291</v>
+        <v>-1960.623104852674</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-80.99104591745389</v>
+        <v>-950.7376701521652</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5212772074107147</v>
+        <v>-1.88522516431956</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.730220111675349</v>
+        <v>-28.18576816807578</v>
       </c>
       <c r="E7">
-        <v>-1.514605105149722</v>
+        <v>-5.477645325062871</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-238.7584528743025</v>
+        <v>-1929.324234124028</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-86.19299803314809</v>
+        <v>-933.2853687763932</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.524671122314902</v>
+        <v>-1.804363004834849</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.536240571555066</v>
+        <v>-30.16750708311225</v>
       </c>
       <c r="E7">
-        <v>-1.524466347435491</v>
+        <v>-5.242695018723318</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-246.4251620089229</v>
+        <v>-1911.396863908818</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91.2030798517242</v>
+        <v>-916.3289840066514</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5836837866529846</v>
+        <v>-1.890152312776413</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.12932452880529</v>
+        <v>-34.8643823518567</v>
       </c>
       <c r="E7">
-        <v>-1.695931513002424</v>
+        <v>-5.491961477966714</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-260.5930130380346</v>
+        <v>-1921.309103807421</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95.87544162888734</v>
+        <v>-901.5589430191679</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6605497360424893</v>
+        <v>-2.197428966944551</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.07197889949209</v>
+        <v>-42.58554018598198</v>
       </c>
       <c r="E7">
-        <v>-1.919270568887512</v>
+        <v>-6.384773944117178</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-277.0503288352614</v>
+        <v>-1965.302242698538</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-100.1573819207492</v>
+        <v>-890.4499338384219</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6807518994915699</v>
+        <v>-2.69291969011015</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.35133920499633</v>
+        <v>-52.59974950221482</v>
       </c>
       <c r="E7">
-        <v>-1.977969279400934</v>
+        <v>-7.824454728528777</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-286.6005968970771</v>
+        <v>-2039.25383670113</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104.0611935504256</v>
+        <v>-884.1346970928432</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6228327061597239</v>
+        <v>-3.296109492829935</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.640364096369</v>
+        <v>-63.85344932880357</v>
       </c>
       <c r="E7">
-        <v>-1.809681265539147</v>
+        <v>-9.577062250180528</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-286.3944207619641</v>
+        <v>-2134.733400011617</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-107.6225620665954</v>
+        <v>-883.298313764398</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5155529523577254</v>
+        <v>-3.920211290951578</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.083657051081074</v>
+        <v>-75.18194205672394</v>
       </c>
       <c r="E7">
-        <v>-1.497972906766252</v>
+        <v>-11.39043094562665</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-278.2253468379191</v>
+        <v>-2241.429437507843</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-110.8629387535862</v>
+        <v>-888.1164135803523</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3935518238024951</v>
+        <v>-4.470341175118882</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.033229545919271</v>
+        <v>-84.9746003491734</v>
       </c>
       <c r="E7">
-        <v>-1.143490628399171</v>
+        <v>-12.98886939490018</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-265.4857538721313</v>
+        <v>-2344.651995198016</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-113.7694369965486</v>
+        <v>-898.2537054758228</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.01007461392654264</v>
+        <v>-0.01007462512623197</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.005605538846449458</v>
+        <v>-0.005605545077993916</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2905750898826719</v>
+        <v>-4.838178786352237</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.212338648334024</v>
+        <v>-91.22327312354993</v>
       </c>
       <c r="E7">
-        <v>-0.844284976033633</v>
+        <v>-14.05764569265448</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-254.2050010116774</v>
+        <v>-2425.667583592898</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116.2964396376415</v>
+        <v>-912.9251350505415</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2677662269071503</v>
+        <v>-4.992236223057723</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.835462094141565</v>
+        <v>-93.29242532934312</v>
       </c>
       <c r="E7">
-        <v>-0.7780123291304922</v>
+        <v>-14.50526967621485</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-254.6449470517421</v>
+        <v>-2477.042123869021</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118.3835016280604</v>
+        <v>-931.0070335627552</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3263465229596071</v>
+        <v>-4.993836102785293</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.901672301488356</v>
+        <v>-92.2068357111131</v>
       </c>
       <c r="E7">
-        <v>-0.9482212202940876</v>
+        <v>-14.50991823166395</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-266.7348593853505</v>
+        <v>-2505.382987511532</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119.9785881963747</v>
+        <v>-951.1757714620653</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3906476201618235</v>
+        <v>-4.922096968552617</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.035115908446989</v>
+        <v>-89.29441198000613</v>
       </c>
       <c r="E7">
-        <v>-1.135052274298855</v>
+        <v>-14.3014754733712</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-278.5254212120491</v>
+        <v>-2519.843486160129</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121.0562024899357</v>
+        <v>-972.0499192191908</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4226327256320536</v>
+        <v>-4.818816929729437</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.579970092431889</v>
+        <v>-85.24821481953613</v>
       </c>
       <c r="E7">
-        <v>-1.227987095436724</v>
+        <v>-14.00138854872191</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-284.3100288258595</v>
+        <v>-2524.150355506287</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121.6247215229412</v>
+        <v>-992.317150466625</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4311170813903125</v>
+        <v>-4.663690392415565</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.725163308517668</v>
+        <v>-79.78255634881982</v>
       </c>
       <c r="E7">
-        <v>-1.252638947393183</v>
+        <v>-13.55065822324526</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285.7547678408362</v>
+        <v>-2513.667460365592</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121.7229162914694</v>
+        <v>-1010.835057884957</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4323395834016955</v>
+        <v>-4.409325870651384</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.768213576437783</v>
+        <v>-72.34950802810683</v>
       </c>
       <c r="E7">
-        <v>-1.256191007144067</v>
+        <v>-12.81158542712846</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285.5364066154593</v>
+        <v>-2481.616226847938</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121.4096129126885</v>
+        <v>-1026.702196791108</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4342236176190007</v>
+        <v>-4.026370055837456</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.847500244344213</v>
+        <v>-62.93413508102015</v>
       </c>
       <c r="E7">
-        <v>-1.261665192094492</v>
+        <v>-11.69888219760294</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-284.9793177838857</v>
+        <v>-2426.064595043194</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-120.7513441537446</v>
+        <v>-1039.299921166114</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4452500998525718</v>
+        <v>-3.554126681397913</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.106966438235057</v>
+        <v>-52.79293368444779</v>
       </c>
       <c r="E7">
-        <v>-1.293703359206699</v>
+        <v>-10.32674810919322</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-285.456781440585</v>
+        <v>-2356.585407048399</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-119.8116824706479</v>
+        <v>-1048.30757206076</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4743888097115119</v>
+        <v>-3.098961910402611</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.670883541019863</v>
+        <v>-44.18760855230865</v>
       </c>
       <c r="E7">
-        <v>-1.378367791263968</v>
+        <v>-9.004237022897797</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-288.1916261110468</v>
+        <v>-2292.25448779892</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-118.6440194497127</v>
+        <v>-1053.694350147492</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2220.99749012478</v>
+        <v>-2220.997490124781</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.6346880929899864</v>
+        <v>-0.6346880929899863</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-35.88115906494655</v>
+        <v>-35.88115906494654</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68.91249854527317</v>
+        <v>-68.91249854527318</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-78.28873287990913</v>
+        <v>-78.28873287990912</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-172.5954541681019</v>
+        <v>-172.595454168102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-233.7564497692775</v>
+        <v>-233.7564497692776</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-620.949921374611</v>
+        <v>-620.9499213746111</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5995,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-778.622314732261</v>
+        <v>-778.6223147322611</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-983.6975727525605</v>
+        <v>-983.6975727525604</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2492.837894460859</v>
+        <v>-2492.83789446086</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0004289221120385086</v>
+        <v>-0.0004289221120385085</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11791,7 +11791,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1960.623104852674</v>
+        <v>-1960.623104852673</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12481,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2039.25383670113</v>
+        <v>-2039.253836701129</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14137,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2426.064595043194</v>
+        <v>-2426.064595043193</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Min_b1.xlsx
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2220.997490124781</v>
+        <v>-2220.99749012478</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-35.88115906494654</v>
+        <v>-35.88115906494655</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-55.54311800619106</v>
+        <v>-55.54311800619107</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-68.91249854527318</v>
+        <v>-68.91249854527317</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-78.28873287990912</v>
+        <v>-78.28873287990913</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-172.595454168102</v>
+        <v>-172.5954541681019</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2149.485735557058</v>
+        <v>-2149.485735557057</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14137,7 +14137,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2426.064595043193</v>
+        <v>-2426.064595043194</v>
       </c>
     </row>
     <row r="8" spans="1:7">
